--- a/RxNorm/Opioid/Complete_Opioids_List_with_Ingredients.xlsx
+++ b/RxNorm/Opioid/Complete_Opioids_List_with_Ingredients.xlsx
@@ -15088,7 +15088,7 @@
         <v>2268</v>
       </c>
       <c r="D511" t="s">
-        <v>2345</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -15102,7 +15102,7 @@
         <v>2268</v>
       </c>
       <c r="D512" t="s">
-        <v>2345</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="513" spans="1:4">
@@ -20212,7 +20212,7 @@
         <v>2266</v>
       </c>
       <c r="D877" t="s">
-        <v>2287</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="878" spans="1:4">
@@ -20226,7 +20226,7 @@
         <v>2268</v>
       </c>
       <c r="D878" t="s">
-        <v>2287</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="879" spans="1:4">
@@ -20240,7 +20240,7 @@
         <v>2268</v>
       </c>
       <c r="D879" t="s">
-        <v>2287</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="880" spans="1:4">
@@ -20254,7 +20254,7 @@
         <v>2264</v>
       </c>
       <c r="D880" t="s">
-        <v>2287</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="881" spans="1:4">
@@ -20268,7 +20268,7 @@
         <v>2264</v>
       </c>
       <c r="D881" t="s">
-        <v>2287</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="882" spans="1:4">
@@ -20296,7 +20296,7 @@
         <v>2264</v>
       </c>
       <c r="D883" t="s">
-        <v>2287</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="884" spans="1:4">
@@ -21318,7 +21318,7 @@
         <v>2263</v>
       </c>
       <c r="D956" t="s">
-        <v>2287</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="957" spans="1:4">
@@ -23908,7 +23908,7 @@
         <v>2266</v>
       </c>
       <c r="D1141" t="s">
-        <v>2345</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="1142" spans="1:4">
@@ -28430,7 +28430,7 @@
         <v>2264</v>
       </c>
       <c r="D1464" t="s">
-        <v>2345</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="1465" spans="1:4">
@@ -31748,7 +31748,7 @@
         <v>2272</v>
       </c>
       <c r="D1701" t="s">
-        <v>2287</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="1702" spans="1:4">
@@ -31762,7 +31762,7 @@
         <v>2271</v>
       </c>
       <c r="D1702" t="s">
-        <v>2287</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="1703" spans="1:4">
@@ -31776,7 +31776,7 @@
         <v>2271</v>
       </c>
       <c r="D1703" t="s">
-        <v>2287</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="1704" spans="1:4">
@@ -31804,7 +31804,7 @@
         <v>2271</v>
       </c>
       <c r="D1705" t="s">
-        <v>2287</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="1706" spans="1:4">
@@ -33246,7 +33246,7 @@
         <v>2272</v>
       </c>
       <c r="D1808" t="s">
-        <v>2345</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="1809" spans="1:4">
@@ -35080,7 +35080,7 @@
         <v>2271</v>
       </c>
       <c r="D1939" t="s">
-        <v>2345</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="1940" spans="1:4">

--- a/RxNorm/Opioid/Complete_Opioids_List_with_Ingredients.xlsx
+++ b/RxNorm/Opioid/Complete_Opioids_List_with_Ingredients.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6781" uniqueCount="2520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6781" uniqueCount="2519">
   <si>
     <t>rxcui</t>
   </si>
@@ -7000,379 +7000,376 @@
     <t>['brompheniramine', 'codeine']</t>
   </si>
   <si>
+    <t>['acetaminophen', 'codeine']</t>
+  </si>
+  <si>
+    <t>['belladonna alkaloids', 'opium']</t>
+  </si>
+  <si>
+    <t>['nalbuphine']</t>
+  </si>
+  <si>
+    <t>['naloxone', 'pentazocine']</t>
+  </si>
+  <si>
+    <t>['remifentanil']</t>
+  </si>
+  <si>
+    <t>['hydrocodone', 'guaiacolsulfonate']</t>
+  </si>
+  <si>
+    <t>['guaifenesin', 'hydrocodone', 'pseudoephedrine']</t>
+  </si>
+  <si>
+    <t>['guaifenesin', 'hydrocodone']</t>
+  </si>
+  <si>
+    <t>['dihydrocodeine']</t>
+  </si>
+  <si>
+    <t>['ropivacaine', 'fentanyl']</t>
+  </si>
+  <si>
+    <t>['homatropine', 'hydrocodone']</t>
+  </si>
+  <si>
+    <t>['meperidine', 'promethazine']</t>
+  </si>
+  <si>
+    <t>['meperidine']</t>
+  </si>
+  <si>
+    <t>['opium']</t>
+  </si>
+  <si>
+    <t>['methadone']</t>
+  </si>
+  <si>
+    <t>['chlorcyclizine', 'codeine', 'pseudoephedrine']</t>
+  </si>
+  <si>
+    <t>['oxymorphone']</t>
+  </si>
+  <si>
+    <t>['sufentanil']</t>
+  </si>
+  <si>
+    <t>['hydrocodone', 'ibuprofen']</t>
+  </si>
+  <si>
+    <t>['hydrocodone', 'pseudoephedrine']</t>
+  </si>
+  <si>
+    <t>['propoxyphene']</t>
+  </si>
+  <si>
+    <t>['bromodiphenhydramine', 'codeine']</t>
+  </si>
+  <si>
+    <t>['hydrocodone']</t>
+  </si>
+  <si>
+    <t>['levorphanol']</t>
+  </si>
+  <si>
+    <t>['hydromorphone']</t>
+  </si>
+  <si>
+    <t>['pentazocine']</t>
+  </si>
+  <si>
+    <t>['loperamide']</t>
+  </si>
+  <si>
+    <t>['morphine', 'naltrexone']</t>
+  </si>
+  <si>
+    <t>['dexbrompheniramine', 'codeine', 'pseudoephedrine']</t>
+  </si>
+  <si>
+    <t>['naloxone', 'oxycodone']</t>
+  </si>
+  <si>
+    <t>['triprolidine', 'codeine', 'phenylephrine']</t>
+  </si>
+  <si>
+    <t>['heroin']</t>
+  </si>
+  <si>
+    <t>['dextromoramide']</t>
+  </si>
+  <si>
+    <t>['aspirin', 'pentazocine']</t>
+  </si>
+  <si>
+    <t>['Kalopanax septemlobus bark extract']</t>
+  </si>
+  <si>
+    <t>['belladonna alkaloids', 'kaolin', 'phenobarbital']</t>
+  </si>
+  <si>
+    <t>['chlorpheniramine', 'phenylephrine', 'belladonna extract, USP', 'pyrilamine']</t>
+  </si>
+  <si>
+    <t>['chlorpheniramine', 'hydrocodone', 'phenylephrine', 'pseudoephedrine', 'pyrilamine']</t>
+  </si>
+  <si>
+    <t>['belladonna alkaloids', 'caffeine']</t>
+  </si>
+  <si>
+    <t>['codeine', 'propyphenazone']</t>
+  </si>
+  <si>
+    <t>['aconite', 'codeine', 'Erysimum preparation']</t>
+  </si>
+  <si>
+    <t>['ephedrine', 'ethylmorphine']</t>
+  </si>
+  <si>
+    <t>['codeine', 'potassium']</t>
+  </si>
+  <si>
+    <t>['dihydrocodeine', 'chlorpheniramine', 'phenylephrine', 'phenylpropanolamine']</t>
+  </si>
+  <si>
+    <t>['attapulgite', 'morphine']</t>
+  </si>
+  <si>
+    <t>['codeine', 'ethylmorphine']</t>
+  </si>
+  <si>
+    <t>['ephedrine', 'belladonna extract, USP']</t>
+  </si>
+  <si>
+    <t>['atropine', 'hydromorphone']</t>
+  </si>
+  <si>
+    <t>['guaiacolsulfonic acid', 'codeine', 'phenylephrine', 'promethazine']</t>
+  </si>
+  <si>
+    <t>['acetaminophen', 'chlorpheniramine', 'codeine']</t>
+  </si>
+  <si>
+    <t>['acetaminophen', 'codeine', 'guaifenesin', 'pseudoephedrine']</t>
+  </si>
+  <si>
+    <t>['papaveretum', 'scopolamine']</t>
+  </si>
+  <si>
+    <t>['caffeine', 'levorotatory alkaloids of belladonna', 'ergotamine', 'pentobarbital']</t>
+  </si>
+  <si>
+    <t>['belladonna alkaloids', 'phenobarbital']</t>
+  </si>
+  <si>
+    <t>['belladonna alkaloids', 'chlorpheniramine', 'phenylephrine', 'phenylpropanolamine']</t>
+  </si>
+  <si>
+    <t>['guaiacolsulfonate', 'morphine']</t>
+  </si>
+  <si>
+    <t>['fentanyl', 'sodium chloride']</t>
+  </si>
+  <si>
+    <t>['methenamine', 'belladonna extract, USP', 'salicylamide']</t>
+  </si>
+  <si>
+    <t>['hydrocodone', 'pheniramine', 'phenylephrine', 'phenylpropanolamine', 'pyrilamine']</t>
+  </si>
+  <si>
+    <t>['belladonna alkaloids', 'caffeine', 'ergotamine', 'pentobarbital']</t>
+  </si>
+  <si>
+    <t>['tilidine', 'naloxone']</t>
+  </si>
+  <si>
+    <t>['phenobarbital', 'belladonna extract, USP']</t>
+  </si>
+  <si>
+    <t>['brompheniramine', 'codeine', 'guaifenesin']</t>
+  </si>
+  <si>
+    <t>['caffeine', 'butalbital', 'codeine']</t>
+  </si>
+  <si>
+    <t>['codeine', 'diclofenac']</t>
+  </si>
+  <si>
+    <t>['brompheniramine', 'dihydrocodeine', 'pseudoephedrine']</t>
+  </si>
+  <si>
+    <t>['dihydrocodeine', 'chlorpheniramine', 'pseudoephedrine']</t>
+  </si>
+  <si>
+    <t>['charcoal', 'belladonna extract, USP']</t>
+  </si>
+  <si>
+    <t>['opium', 'belladonna extract, USP']</t>
+  </si>
+  <si>
+    <t>['acetaminophen', 'caffeine', 'chlorpheniramine', 'hydrocodone', 'phenylephrine']</t>
+  </si>
+  <si>
+    <t>['codeine', 'guaifenesin', 'promethazine']</t>
+  </si>
+  <si>
+    <t>['caffeine', 'codeine', 'pheniramine', 'phenylephrine', 'salicylic acid']</t>
+  </si>
+  <si>
+    <t>['normethadone', 'oxilofrine']</t>
+  </si>
+  <si>
+    <t>['dihydrocodeine', 'phenyltoloxamine']</t>
+  </si>
+  <si>
+    <t>['codeine', 'benzoate']</t>
+  </si>
+  <si>
+    <t>['chlorpheniramine', 'pheniramine', 'phenylpropanolamine', 'belladonna extract, USP']</t>
+  </si>
+  <si>
+    <t>['butabarbital', 'belladonna extract, USP']</t>
+  </si>
+  <si>
+    <t>['acetaminophen', 'codeine', 'phenyltoloxamine', 'magnesium salicylate']</t>
+  </si>
+  <si>
+    <t>['belladonna alkaloids', 'caffeine', 'ergotamine', 'phenobarbital']</t>
+  </si>
+  <si>
+    <t>['dipyrone', 'propoxyphene']</t>
+  </si>
+  <si>
+    <t>['chlorpheniramine', 'hydrocodone', 'phenylephrine', 'pyrilamine']</t>
+  </si>
+  <si>
+    <t>['guaiacolsulfonic acid', 'codeine', 'promethazine']</t>
+  </si>
+  <si>
+    <t>['codeine', 'guaiacolsulfonate']</t>
+  </si>
+  <si>
+    <t>['acetaminophen', 'codeine', 'guaifenesin', 'phenylephrine']</t>
+  </si>
+  <si>
+    <t>['guaiacolsulfonic acid', 'hydrocodone']</t>
+  </si>
+  <si>
+    <t>['belladonna alkaloids', 'simethicone']</t>
+  </si>
+  <si>
+    <t>['codeine', 'Erysimum preparation']</t>
+  </si>
+  <si>
+    <t>['hydrocodone', 'guaiacolsulfonate', 'pseudoephedrine']</t>
+  </si>
+  <si>
+    <t>['ropivacaine', 'fentanyl', 'sodium chloride']</t>
+  </si>
+  <si>
+    <t>['levorotatory alkaloids of belladonna', 'ergotamine', 'phenobarbital']</t>
+  </si>
+  <si>
+    <t>['chlorcyclizine', 'codeine']</t>
+  </si>
+  <si>
+    <t>['chlorcyclizine', 'codeine', 'phenylephrine']</t>
+  </si>
+  <si>
+    <t>['apomorphine']</t>
+  </si>
+  <si>
+    <t>['phenazocine']</t>
+  </si>
+  <si>
+    <t>['tilidine']</t>
+  </si>
+  <si>
+    <t>['codeine', 'pheniramine', 'phenylephrine']</t>
+  </si>
+  <si>
+    <t>['Atropa belladonna fruiting top extract']</t>
+  </si>
+  <si>
+    <t>['Atropa belladonna root extract']</t>
+  </si>
+  <si>
+    <t>['belladonna alkaloids']</t>
+  </si>
+  <si>
+    <t>['Atropa belladonna whole extract']</t>
+  </si>
+  <si>
+    <t>['naltrexone', 'oxycodone']</t>
+  </si>
+  <si>
+    <t>['Atropa belladonna flowering top extract']</t>
+  </si>
+  <si>
+    <t>['chlorpheniramine', 'hydrocodone', 'phenylephrine']</t>
+  </si>
+  <si>
+    <t>['codeine', 'iodinated glycerol']</t>
+  </si>
+  <si>
+    <t>['codeine', 'guaifenesin', 'phenylpropanolamine']</t>
+  </si>
+  <si>
+    <t>['triprolidine', 'codeine', 'pseudoephedrine']</t>
+  </si>
+  <si>
+    <t>['guaifenesin', 'hydrocodone', 'phenylephrine']</t>
+  </si>
+  <si>
+    <t>['hydrocodone', 'phenylephrine']</t>
+  </si>
+  <si>
+    <t>['hydrocodone', 'phenylpropanolamine']</t>
+  </si>
+  <si>
+    <t>['hydrocodone', 'phenylephrine', 'pyrilamine']</t>
+  </si>
+  <si>
+    <t>['aspirin']</t>
+  </si>
+  <si>
+    <t>['chlorpheniramine']</t>
+  </si>
+  <si>
+    <t>['levorotatory alkaloids of belladonna']</t>
+  </si>
+  <si>
+    <t>['dezocine']</t>
+  </si>
+  <si>
+    <t>['ethylmorphine']</t>
+  </si>
+  <si>
+    <t>['levomethadone']</t>
+  </si>
+  <si>
+    <t>['papaveretum']</t>
+  </si>
+  <si>
+    <t>['carbinoxamine', 'hydrocodone', 'pseudoephedrine']</t>
+  </si>
+  <si>
+    <t>['belladonna leaf extract']</t>
+  </si>
+  <si>
+    <t>['normethadone']</t>
+  </si>
+  <si>
+    <t>['paregoric']</t>
+  </si>
+  <si>
+    <t>['levopropoxyphene']</t>
+  </si>
+  <si>
+    <t>['brompheniramine', 'hydrocodone', 'pseudoephedrine']</t>
+  </si>
+  <si>
     <t>['dihydrocodeine', 'chlorpheniramine', 'phenylephrine']</t>
-  </si>
-  <si>
-    <t>['acetaminophen', 'codeine']</t>
-  </si>
-  <si>
-    <t>['belladonna alkaloids', 'opium']</t>
-  </si>
-  <si>
-    <t>['nalbuphine']</t>
-  </si>
-  <si>
-    <t>['naloxone', 'pentazocine']</t>
-  </si>
-  <si>
-    <t>['remifentanil']</t>
-  </si>
-  <si>
-    <t>['hydrocodone', 'guaiacolsulfonate']</t>
-  </si>
-  <si>
-    <t>['guaifenesin', 'hydrocodone', 'pseudoephedrine']</t>
-  </si>
-  <si>
-    <t>['guaifenesin', 'hydrocodone']</t>
-  </si>
-  <si>
-    <t>['dihydrocodeine']</t>
-  </si>
-  <si>
-    <t>['ropivacaine', 'fentanyl']</t>
-  </si>
-  <si>
-    <t>['homatropine', 'hydrocodone']</t>
-  </si>
-  <si>
-    <t>['meperidine', 'promethazine']</t>
-  </si>
-  <si>
-    <t>['meperidine']</t>
-  </si>
-  <si>
-    <t>['opium']</t>
-  </si>
-  <si>
-    <t>['methadone']</t>
-  </si>
-  <si>
-    <t>['chlorcyclizine', 'codeine', 'pseudoephedrine']</t>
-  </si>
-  <si>
-    <t>['oxymorphone']</t>
-  </si>
-  <si>
-    <t>['sufentanil']</t>
-  </si>
-  <si>
-    <t>['hydrocodone', 'ibuprofen']</t>
-  </si>
-  <si>
-    <t>['hydrocodone', 'pseudoephedrine']</t>
-  </si>
-  <si>
-    <t>['propoxyphene']</t>
-  </si>
-  <si>
-    <t>['bromodiphenhydramine', 'codeine']</t>
-  </si>
-  <si>
-    <t>['hydrocodone']</t>
-  </si>
-  <si>
-    <t>['levorphanol']</t>
-  </si>
-  <si>
-    <t>['hydromorphone']</t>
-  </si>
-  <si>
-    <t>['pentazocine']</t>
-  </si>
-  <si>
-    <t>['loperamide']</t>
-  </si>
-  <si>
-    <t>['morphine', 'naltrexone']</t>
-  </si>
-  <si>
-    <t>['dexbrompheniramine', 'codeine', 'pseudoephedrine']</t>
-  </si>
-  <si>
-    <t>['naloxone', 'oxycodone']</t>
-  </si>
-  <si>
-    <t>['triprolidine', 'codeine', 'phenylephrine']</t>
-  </si>
-  <si>
-    <t>['heroin']</t>
-  </si>
-  <si>
-    <t>['dextromoramide']</t>
-  </si>
-  <si>
-    <t>['aspirin', 'pentazocine']</t>
-  </si>
-  <si>
-    <t>['Kalopanax septemlobus bark extract']</t>
-  </si>
-  <si>
-    <t>['belladonna alkaloids', 'kaolin', 'phenobarbital']</t>
-  </si>
-  <si>
-    <t>['chlorpheniramine', 'phenylephrine', 'belladonna extract, USP', 'pyrilamine']</t>
-  </si>
-  <si>
-    <t>['chlorpheniramine', 'hydrocodone', 'phenylephrine', 'pseudoephedrine', 'pyrilamine']</t>
-  </si>
-  <si>
-    <t>['belladonna alkaloids', 'caffeine']</t>
-  </si>
-  <si>
-    <t>['codeine', 'propyphenazone']</t>
-  </si>
-  <si>
-    <t>['aconite', 'codeine', 'Erysimum preparation']</t>
-  </si>
-  <si>
-    <t>['ephedrine', 'ethylmorphine']</t>
-  </si>
-  <si>
-    <t>['codeine', 'potassium']</t>
-  </si>
-  <si>
-    <t>['dihydrocodeine', 'chlorpheniramine', 'phenylephrine', 'phenylpropanolamine']</t>
-  </si>
-  <si>
-    <t>['attapulgite', 'morphine']</t>
-  </si>
-  <si>
-    <t>['codeine', 'ethylmorphine']</t>
-  </si>
-  <si>
-    <t>['ephedrine', 'belladonna extract, USP']</t>
-  </si>
-  <si>
-    <t>['atropine', 'hydromorphone']</t>
-  </si>
-  <si>
-    <t>['guaiacolsulfonic acid', 'codeine', 'phenylephrine', 'promethazine']</t>
-  </si>
-  <si>
-    <t>['acetaminophen', 'chlorpheniramine', 'codeine']</t>
-  </si>
-  <si>
-    <t>['acetaminophen', 'codeine', 'guaifenesin', 'pseudoephedrine']</t>
-  </si>
-  <si>
-    <t>['papaveretum', 'scopolamine']</t>
-  </si>
-  <si>
-    <t>['caffeine', 'levorotatory alkaloids of belladonna', 'ergotamine', 'pentobarbital']</t>
-  </si>
-  <si>
-    <t>['belladonna alkaloids', 'phenobarbital']</t>
-  </si>
-  <si>
-    <t>['belladonna alkaloids', 'chlorpheniramine', 'phenylephrine', 'phenylpropanolamine']</t>
-  </si>
-  <si>
-    <t>['guaiacolsulfonate', 'morphine']</t>
-  </si>
-  <si>
-    <t>['fentanyl', 'sodium chloride']</t>
-  </si>
-  <si>
-    <t>['methenamine', 'belladonna extract, USP', 'salicylamide']</t>
-  </si>
-  <si>
-    <t>['hydrocodone', 'pheniramine', 'phenylephrine', 'phenylpropanolamine', 'pyrilamine']</t>
-  </si>
-  <si>
-    <t>['belladonna alkaloids', 'chlorpheniramine', 'pseudoephedrine']</t>
-  </si>
-  <si>
-    <t>['belladonna alkaloids', 'caffeine', 'ergotamine', 'pentobarbital']</t>
-  </si>
-  <si>
-    <t>['tilidine', 'naloxone']</t>
-  </si>
-  <si>
-    <t>['phenobarbital', 'belladonna extract, USP']</t>
-  </si>
-  <si>
-    <t>['brompheniramine', 'codeine', 'guaifenesin']</t>
-  </si>
-  <si>
-    <t>['caffeine', 'butalbital', 'codeine']</t>
-  </si>
-  <si>
-    <t>['codeine', 'diclofenac']</t>
-  </si>
-  <si>
-    <t>['brompheniramine', 'dihydrocodeine', 'pseudoephedrine']</t>
-  </si>
-  <si>
-    <t>['dihydrocodeine', 'chlorpheniramine', 'pseudoephedrine']</t>
-  </si>
-  <si>
-    <t>['charcoal', 'belladonna extract, USP']</t>
-  </si>
-  <si>
-    <t>['opium', 'belladonna extract, USP']</t>
-  </si>
-  <si>
-    <t>['acetaminophen', 'caffeine', 'chlorpheniramine', 'hydrocodone', 'phenylephrine']</t>
-  </si>
-  <si>
-    <t>['codeine', 'guaifenesin', 'promethazine']</t>
-  </si>
-  <si>
-    <t>['caffeine', 'codeine', 'pheniramine', 'phenylephrine', 'salicylic acid']</t>
-  </si>
-  <si>
-    <t>['normethadone', 'oxilofrine']</t>
-  </si>
-  <si>
-    <t>['dihydrocodeine', 'phenyltoloxamine']</t>
-  </si>
-  <si>
-    <t>['codeine', 'benzoate']</t>
-  </si>
-  <si>
-    <t>['chlorpheniramine', 'pheniramine', 'phenylpropanolamine', 'belladonna extract, USP']</t>
-  </si>
-  <si>
-    <t>['butabarbital', 'belladonna extract, USP']</t>
-  </si>
-  <si>
-    <t>['acetaminophen', 'codeine', 'phenyltoloxamine', 'magnesium salicylate']</t>
-  </si>
-  <si>
-    <t>['belladonna alkaloids', 'caffeine', 'ergotamine', 'phenobarbital']</t>
-  </si>
-  <si>
-    <t>['dipyrone', 'propoxyphene']</t>
-  </si>
-  <si>
-    <t>['chlorpheniramine', 'hydrocodone', 'phenylephrine', 'pyrilamine']</t>
-  </si>
-  <si>
-    <t>['guaiacolsulfonic acid', 'codeine', 'promethazine']</t>
-  </si>
-  <si>
-    <t>['codeine', 'guaiacolsulfonate']</t>
-  </si>
-  <si>
-    <t>['acetaminophen', 'codeine', 'guaifenesin', 'phenylephrine']</t>
-  </si>
-  <si>
-    <t>['guaiacolsulfonic acid', 'hydrocodone']</t>
-  </si>
-  <si>
-    <t>['belladonna alkaloids', 'simethicone']</t>
-  </si>
-  <si>
-    <t>['codeine', 'Erysimum preparation']</t>
-  </si>
-  <si>
-    <t>['hydrocodone', 'guaiacolsulfonate', 'pseudoephedrine']</t>
-  </si>
-  <si>
-    <t>['ropivacaine', 'fentanyl', 'sodium chloride']</t>
-  </si>
-  <si>
-    <t>['levorotatory alkaloids of belladonna', 'ergotamine', 'phenobarbital']</t>
-  </si>
-  <si>
-    <t>['chlorcyclizine', 'codeine']</t>
-  </si>
-  <si>
-    <t>['chlorcyclizine', 'codeine', 'phenylephrine']</t>
-  </si>
-  <si>
-    <t>['apomorphine']</t>
-  </si>
-  <si>
-    <t>['phenazocine']</t>
-  </si>
-  <si>
-    <t>['tilidine']</t>
-  </si>
-  <si>
-    <t>['codeine', 'pheniramine', 'phenylephrine']</t>
-  </si>
-  <si>
-    <t>['Atropa belladonna fruiting top extract']</t>
-  </si>
-  <si>
-    <t>['Atropa belladonna root extract']</t>
-  </si>
-  <si>
-    <t>['belladonna alkaloids']</t>
-  </si>
-  <si>
-    <t>['Atropa belladonna whole extract']</t>
-  </si>
-  <si>
-    <t>['naltrexone', 'oxycodone']</t>
-  </si>
-  <si>
-    <t>['Atropa belladonna flowering top extract']</t>
-  </si>
-  <si>
-    <t>['chlorpheniramine', 'hydrocodone', 'phenylephrine']</t>
-  </si>
-  <si>
-    <t>['codeine', 'iodinated glycerol']</t>
-  </si>
-  <si>
-    <t>['codeine', 'guaifenesin', 'phenylpropanolamine']</t>
-  </si>
-  <si>
-    <t>['triprolidine', 'codeine', 'pseudoephedrine']</t>
-  </si>
-  <si>
-    <t>['guaifenesin', 'hydrocodone', 'phenylephrine']</t>
-  </si>
-  <si>
-    <t>['hydrocodone', 'phenylephrine']</t>
-  </si>
-  <si>
-    <t>['hydrocodone', 'phenylpropanolamine']</t>
-  </si>
-  <si>
-    <t>['hydrocodone', 'phenylephrine', 'pyrilamine']</t>
-  </si>
-  <si>
-    <t>['aspirin']</t>
-  </si>
-  <si>
-    <t>['chlorpheniramine']</t>
-  </si>
-  <si>
-    <t>['levorotatory alkaloids of belladonna']</t>
-  </si>
-  <si>
-    <t>['dezocine']</t>
-  </si>
-  <si>
-    <t>['ethylmorphine']</t>
-  </si>
-  <si>
-    <t>['levomethadone']</t>
-  </si>
-  <si>
-    <t>['papaveretum']</t>
-  </si>
-  <si>
-    <t>['carbinoxamine', 'hydrocodone', 'pseudoephedrine']</t>
-  </si>
-  <si>
-    <t>['belladonna leaf extract']</t>
-  </si>
-  <si>
-    <t>['normethadone']</t>
-  </si>
-  <si>
-    <t>['paregoric']</t>
-  </si>
-  <si>
-    <t>['levopropoxyphene']</t>
-  </si>
-  <si>
-    <t>['brompheniramine', 'hydrocodone', 'pseudoephedrine']</t>
   </si>
   <si>
     <t>['dihydrocodeine', 'guaifenesin', 'pseudoephedrine']</t>
@@ -11266,7 +11263,7 @@
         <v>2267</v>
       </c>
       <c r="D238" t="s">
-        <v>2328</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -11280,7 +11277,7 @@
         <v>2267</v>
       </c>
       <c r="D239" t="s">
-        <v>2328</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -11294,7 +11291,7 @@
         <v>2267</v>
       </c>
       <c r="D240" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -11308,7 +11305,7 @@
         <v>2267</v>
       </c>
       <c r="D241" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -11322,7 +11319,7 @@
         <v>2267</v>
       </c>
       <c r="D242" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -11364,7 +11361,7 @@
         <v>2267</v>
       </c>
       <c r="D245" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -11476,7 +11473,7 @@
         <v>2267</v>
       </c>
       <c r="D253" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -11490,7 +11487,7 @@
         <v>2267</v>
       </c>
       <c r="D254" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -11504,7 +11501,7 @@
         <v>2267</v>
       </c>
       <c r="D255" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -11518,7 +11515,7 @@
         <v>2267</v>
       </c>
       <c r="D256" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -11616,7 +11613,7 @@
         <v>2267</v>
       </c>
       <c r="D263" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -11630,7 +11627,7 @@
         <v>2267</v>
       </c>
       <c r="D264" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -11672,7 +11669,7 @@
         <v>2267</v>
       </c>
       <c r="D267" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -11686,7 +11683,7 @@
         <v>2267</v>
       </c>
       <c r="D268" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -11700,7 +11697,7 @@
         <v>2267</v>
       </c>
       <c r="D269" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -11714,7 +11711,7 @@
         <v>2267</v>
       </c>
       <c r="D270" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -11728,7 +11725,7 @@
         <v>2267</v>
       </c>
       <c r="D271" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -11742,7 +11739,7 @@
         <v>2267</v>
       </c>
       <c r="D272" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -11756,7 +11753,7 @@
         <v>2267</v>
       </c>
       <c r="D273" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -11854,7 +11851,7 @@
         <v>2267</v>
       </c>
       <c r="D280" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -11868,7 +11865,7 @@
         <v>2267</v>
       </c>
       <c r="D281" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -11882,7 +11879,7 @@
         <v>2267</v>
       </c>
       <c r="D282" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -11896,7 +11893,7 @@
         <v>2267</v>
       </c>
       <c r="D283" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -11910,7 +11907,7 @@
         <v>2267</v>
       </c>
       <c r="D284" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -11924,7 +11921,7 @@
         <v>2267</v>
       </c>
       <c r="D285" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -11938,7 +11935,7 @@
         <v>2267</v>
       </c>
       <c r="D286" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -11952,7 +11949,7 @@
         <v>2267</v>
       </c>
       <c r="D287" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -11966,7 +11963,7 @@
         <v>2267</v>
       </c>
       <c r="D288" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -12050,7 +12047,7 @@
         <v>2267</v>
       </c>
       <c r="D294" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -12064,7 +12061,7 @@
         <v>2267</v>
       </c>
       <c r="D295" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -12106,7 +12103,7 @@
         <v>2267</v>
       </c>
       <c r="D298" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -12120,7 +12117,7 @@
         <v>2267</v>
       </c>
       <c r="D299" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -12134,7 +12131,7 @@
         <v>2267</v>
       </c>
       <c r="D300" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -12148,7 +12145,7 @@
         <v>2267</v>
       </c>
       <c r="D301" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -12218,7 +12215,7 @@
         <v>2267</v>
       </c>
       <c r="D306" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -12232,7 +12229,7 @@
         <v>2267</v>
       </c>
       <c r="D307" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -12260,7 +12257,7 @@
         <v>2267</v>
       </c>
       <c r="D309" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -12274,7 +12271,7 @@
         <v>2267</v>
       </c>
       <c r="D310" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -12288,7 +12285,7 @@
         <v>2267</v>
       </c>
       <c r="D311" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -12302,7 +12299,7 @@
         <v>2267</v>
       </c>
       <c r="D312" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -12316,7 +12313,7 @@
         <v>2267</v>
       </c>
       <c r="D313" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -12358,7 +12355,7 @@
         <v>2267</v>
       </c>
       <c r="D316" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -12372,7 +12369,7 @@
         <v>2267</v>
       </c>
       <c r="D317" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -12386,7 +12383,7 @@
         <v>2267</v>
       </c>
       <c r="D318" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -12400,7 +12397,7 @@
         <v>2267</v>
       </c>
       <c r="D319" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -12414,7 +12411,7 @@
         <v>2267</v>
       </c>
       <c r="D320" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -12428,7 +12425,7 @@
         <v>2267</v>
       </c>
       <c r="D321" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -12442,7 +12439,7 @@
         <v>2267</v>
       </c>
       <c r="D322" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -12456,7 +12453,7 @@
         <v>2267</v>
       </c>
       <c r="D323" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -12470,7 +12467,7 @@
         <v>2267</v>
       </c>
       <c r="D324" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -12484,7 +12481,7 @@
         <v>2267</v>
       </c>
       <c r="D325" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -12498,7 +12495,7 @@
         <v>2267</v>
       </c>
       <c r="D326" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -12512,7 +12509,7 @@
         <v>2267</v>
       </c>
       <c r="D327" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -12526,7 +12523,7 @@
         <v>2267</v>
       </c>
       <c r="D328" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -12540,7 +12537,7 @@
         <v>2267</v>
       </c>
       <c r="D329" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -12554,7 +12551,7 @@
         <v>2267</v>
       </c>
       <c r="D330" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -12568,7 +12565,7 @@
         <v>2267</v>
       </c>
       <c r="D331" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -12582,7 +12579,7 @@
         <v>2267</v>
       </c>
       <c r="D332" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -12596,7 +12593,7 @@
         <v>2267</v>
       </c>
       <c r="D333" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -12610,7 +12607,7 @@
         <v>2267</v>
       </c>
       <c r="D334" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -12624,7 +12621,7 @@
         <v>2267</v>
       </c>
       <c r="D335" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -12666,7 +12663,7 @@
         <v>2267</v>
       </c>
       <c r="D338" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -12680,7 +12677,7 @@
         <v>2267</v>
       </c>
       <c r="D339" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -12694,7 +12691,7 @@
         <v>2267</v>
       </c>
       <c r="D340" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -12708,7 +12705,7 @@
         <v>2267</v>
       </c>
       <c r="D341" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -12806,7 +12803,7 @@
         <v>2268</v>
       </c>
       <c r="D348" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -12820,7 +12817,7 @@
         <v>2268</v>
       </c>
       <c r="D349" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -12904,7 +12901,7 @@
         <v>2268</v>
       </c>
       <c r="D355" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -12918,7 +12915,7 @@
         <v>2268</v>
       </c>
       <c r="D356" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -13296,7 +13293,7 @@
         <v>2268</v>
       </c>
       <c r="D383" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -13310,7 +13307,7 @@
         <v>2268</v>
       </c>
       <c r="D384" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -13324,7 +13321,7 @@
         <v>2268</v>
       </c>
       <c r="D385" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -13338,7 +13335,7 @@
         <v>2268</v>
       </c>
       <c r="D386" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -13604,7 +13601,7 @@
         <v>2268</v>
       </c>
       <c r="D405" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -13618,7 +13615,7 @@
         <v>2268</v>
       </c>
       <c r="D406" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -13632,7 +13629,7 @@
         <v>2268</v>
       </c>
       <c r="D407" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -13646,7 +13643,7 @@
         <v>2268</v>
       </c>
       <c r="D408" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -13660,7 +13657,7 @@
         <v>2268</v>
       </c>
       <c r="D409" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -13744,7 +13741,7 @@
         <v>2268</v>
       </c>
       <c r="D415" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -13758,7 +13755,7 @@
         <v>2268</v>
       </c>
       <c r="D416" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -13856,7 +13853,7 @@
         <v>2268</v>
       </c>
       <c r="D423" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -13870,7 +13867,7 @@
         <v>2268</v>
       </c>
       <c r="D424" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -14038,7 +14035,7 @@
         <v>2268</v>
       </c>
       <c r="D436" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -14052,7 +14049,7 @@
         <v>2268</v>
       </c>
       <c r="D437" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -14150,7 +14147,7 @@
         <v>2268</v>
       </c>
       <c r="D444" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -14192,7 +14189,7 @@
         <v>2268</v>
       </c>
       <c r="D447" t="s">
-        <v>2328</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -14206,7 +14203,7 @@
         <v>2268</v>
       </c>
       <c r="D448" t="s">
-        <v>2328</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -14220,7 +14217,7 @@
         <v>2268</v>
       </c>
       <c r="D449" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -14402,7 +14399,7 @@
         <v>2268</v>
       </c>
       <c r="D462" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -14416,7 +14413,7 @@
         <v>2268</v>
       </c>
       <c r="D463" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -14430,7 +14427,7 @@
         <v>2268</v>
       </c>
       <c r="D464" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -14472,7 +14469,7 @@
         <v>2268</v>
       </c>
       <c r="D467" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -14486,7 +14483,7 @@
         <v>2268</v>
       </c>
       <c r="D468" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -14948,7 +14945,7 @@
         <v>2268</v>
       </c>
       <c r="D501" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -14962,7 +14959,7 @@
         <v>2268</v>
       </c>
       <c r="D502" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -15298,7 +15295,7 @@
         <v>2268</v>
       </c>
       <c r="D526" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="527" spans="1:4">
@@ -15312,7 +15309,7 @@
         <v>2268</v>
       </c>
       <c r="D527" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="528" spans="1:4">
@@ -15326,7 +15323,7 @@
         <v>2268</v>
       </c>
       <c r="D528" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="529" spans="1:4">
@@ -15410,7 +15407,7 @@
         <v>2268</v>
       </c>
       <c r="D534" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="535" spans="1:4">
@@ -15424,7 +15421,7 @@
         <v>2268</v>
       </c>
       <c r="D535" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -15522,7 +15519,7 @@
         <v>2268</v>
       </c>
       <c r="D542" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="543" spans="1:4">
@@ -15536,7 +15533,7 @@
         <v>2268</v>
       </c>
       <c r="D543" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="544" spans="1:4">
@@ -15550,7 +15547,7 @@
         <v>2268</v>
       </c>
       <c r="D544" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -15746,7 +15743,7 @@
         <v>2267</v>
       </c>
       <c r="D558" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="559" spans="1:4">
@@ -15760,7 +15757,7 @@
         <v>2267</v>
       </c>
       <c r="D559" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="560" spans="1:4">
@@ -15774,7 +15771,7 @@
         <v>2263</v>
       </c>
       <c r="D560" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="561" spans="1:4">
@@ -15788,7 +15785,7 @@
         <v>2268</v>
       </c>
       <c r="D561" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="562" spans="1:4">
@@ -15802,7 +15799,7 @@
         <v>2268</v>
       </c>
       <c r="D562" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="563" spans="1:4">
@@ -15816,7 +15813,7 @@
         <v>2264</v>
       </c>
       <c r="D563" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="564" spans="1:4">
@@ -15872,7 +15869,7 @@
         <v>2263</v>
       </c>
       <c r="D567" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="568" spans="1:4">
@@ -15914,7 +15911,7 @@
         <v>2263</v>
       </c>
       <c r="D570" t="s">
-        <v>2328</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="571" spans="1:4">
@@ -15928,7 +15925,7 @@
         <v>2264</v>
       </c>
       <c r="D571" t="s">
-        <v>2328</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="572" spans="1:4">
@@ -15998,7 +15995,7 @@
         <v>2263</v>
       </c>
       <c r="D576" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="577" spans="1:4">
@@ -16012,7 +16009,7 @@
         <v>2263</v>
       </c>
       <c r="D577" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="578" spans="1:4">
@@ -16026,7 +16023,7 @@
         <v>2263</v>
       </c>
       <c r="D578" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="579" spans="1:4">
@@ -16040,7 +16037,7 @@
         <v>2263</v>
       </c>
       <c r="D579" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="580" spans="1:4">
@@ -16054,7 +16051,7 @@
         <v>2263</v>
       </c>
       <c r="D580" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="581" spans="1:4">
@@ -16068,7 +16065,7 @@
         <v>2263</v>
       </c>
       <c r="D581" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="582" spans="1:4">
@@ -16278,7 +16275,7 @@
         <v>2264</v>
       </c>
       <c r="D596" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="597" spans="1:4">
@@ -16292,7 +16289,7 @@
         <v>2264</v>
       </c>
       <c r="D597" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="598" spans="1:4">
@@ -16306,7 +16303,7 @@
         <v>2268</v>
       </c>
       <c r="D598" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="599" spans="1:4">
@@ -16320,7 +16317,7 @@
         <v>2268</v>
       </c>
       <c r="D599" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="600" spans="1:4">
@@ -16334,7 +16331,7 @@
         <v>2264</v>
       </c>
       <c r="D600" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="601" spans="1:4">
@@ -16390,7 +16387,7 @@
         <v>2263</v>
       </c>
       <c r="D604" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="605" spans="1:4">
@@ -16404,7 +16401,7 @@
         <v>2264</v>
       </c>
       <c r="D605" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="606" spans="1:4">
@@ -16418,7 +16415,7 @@
         <v>2263</v>
       </c>
       <c r="D606" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="607" spans="1:4">
@@ -16684,7 +16681,7 @@
         <v>2263</v>
       </c>
       <c r="D625" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="626" spans="1:4">
@@ -17062,7 +17059,7 @@
         <v>2263</v>
       </c>
       <c r="D652" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="653" spans="1:4">
@@ -17076,7 +17073,7 @@
         <v>2264</v>
       </c>
       <c r="D653" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="654" spans="1:4">
@@ -17244,7 +17241,7 @@
         <v>2263</v>
       </c>
       <c r="D665" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="666" spans="1:4">
@@ -17300,7 +17297,7 @@
         <v>2268</v>
       </c>
       <c r="D669" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="670" spans="1:4">
@@ -17314,7 +17311,7 @@
         <v>2268</v>
       </c>
       <c r="D670" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="671" spans="1:4">
@@ -17426,7 +17423,7 @@
         <v>2264</v>
       </c>
       <c r="D678" t="s">
-        <v>2280</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="679" spans="1:4">
@@ -17496,7 +17493,7 @@
         <v>2263</v>
       </c>
       <c r="D683" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="684" spans="1:4">
@@ -17510,7 +17507,7 @@
         <v>2263</v>
       </c>
       <c r="D684" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="685" spans="1:4">
@@ -17748,7 +17745,7 @@
         <v>2266</v>
       </c>
       <c r="D701" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="702" spans="1:4">
@@ -17762,7 +17759,7 @@
         <v>2268</v>
       </c>
       <c r="D702" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="703" spans="1:4">
@@ -17776,7 +17773,7 @@
         <v>2268</v>
       </c>
       <c r="D703" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="704" spans="1:4">
@@ -17790,7 +17787,7 @@
         <v>2264</v>
       </c>
       <c r="D704" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="705" spans="1:4">
@@ -17888,7 +17885,7 @@
         <v>2267</v>
       </c>
       <c r="D711" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="712" spans="1:4">
@@ -18000,7 +17997,7 @@
         <v>2263</v>
       </c>
       <c r="D719" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="720" spans="1:4">
@@ -18014,7 +18011,7 @@
         <v>2268</v>
       </c>
       <c r="D720" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="721" spans="1:4">
@@ -18028,7 +18025,7 @@
         <v>2268</v>
       </c>
       <c r="D721" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="722" spans="1:4">
@@ -18042,7 +18039,7 @@
         <v>2264</v>
       </c>
       <c r="D722" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="723" spans="1:4">
@@ -18056,7 +18053,7 @@
         <v>2263</v>
       </c>
       <c r="D723" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="724" spans="1:4">
@@ -18070,7 +18067,7 @@
         <v>2264</v>
       </c>
       <c r="D724" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="725" spans="1:4">
@@ -18084,7 +18081,7 @@
         <v>2263</v>
       </c>
       <c r="D725" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="726" spans="1:4">
@@ -18098,7 +18095,7 @@
         <v>2264</v>
       </c>
       <c r="D726" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="727" spans="1:4">
@@ -18112,7 +18109,7 @@
         <v>2263</v>
       </c>
       <c r="D727" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="728" spans="1:4">
@@ -18126,7 +18123,7 @@
         <v>2264</v>
       </c>
       <c r="D728" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="729" spans="1:4">
@@ -18140,7 +18137,7 @@
         <v>2263</v>
       </c>
       <c r="D729" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="730" spans="1:4">
@@ -18154,7 +18151,7 @@
         <v>2264</v>
       </c>
       <c r="D730" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="731" spans="1:4">
@@ -18168,7 +18165,7 @@
         <v>2263</v>
       </c>
       <c r="D731" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="732" spans="1:4">
@@ -18182,7 +18179,7 @@
         <v>2264</v>
       </c>
       <c r="D732" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="733" spans="1:4">
@@ -18196,7 +18193,7 @@
         <v>2263</v>
       </c>
       <c r="D733" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="734" spans="1:4">
@@ -18210,7 +18207,7 @@
         <v>2264</v>
       </c>
       <c r="D734" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="735" spans="1:4">
@@ -18294,7 +18291,7 @@
         <v>2268</v>
       </c>
       <c r="D740" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="741" spans="1:4">
@@ -18308,7 +18305,7 @@
         <v>2268</v>
       </c>
       <c r="D741" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="742" spans="1:4">
@@ -18322,7 +18319,7 @@
         <v>2264</v>
       </c>
       <c r="D742" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="743" spans="1:4">
@@ -18420,7 +18417,7 @@
         <v>2263</v>
       </c>
       <c r="D749" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="750" spans="1:4">
@@ -18434,7 +18431,7 @@
         <v>2268</v>
       </c>
       <c r="D750" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="751" spans="1:4">
@@ -18448,7 +18445,7 @@
         <v>2268</v>
       </c>
       <c r="D751" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="752" spans="1:4">
@@ -18462,7 +18459,7 @@
         <v>2264</v>
       </c>
       <c r="D752" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="753" spans="1:4">
@@ -18588,7 +18585,7 @@
         <v>2267</v>
       </c>
       <c r="D761" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="762" spans="1:4">
@@ -18602,7 +18599,7 @@
         <v>2267</v>
       </c>
       <c r="D762" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="763" spans="1:4">
@@ -18616,7 +18613,7 @@
         <v>2263</v>
       </c>
       <c r="D763" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="764" spans="1:4">
@@ -18714,7 +18711,7 @@
         <v>2265</v>
       </c>
       <c r="D770" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="771" spans="1:4">
@@ -18728,7 +18725,7 @@
         <v>2266</v>
       </c>
       <c r="D771" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="772" spans="1:4">
@@ -18742,7 +18739,7 @@
         <v>2265</v>
       </c>
       <c r="D772" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="773" spans="1:4">
@@ -18756,7 +18753,7 @@
         <v>2263</v>
       </c>
       <c r="D773" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="774" spans="1:4">
@@ -18770,7 +18767,7 @@
         <v>2266</v>
       </c>
       <c r="D774" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="775" spans="1:4">
@@ -18784,7 +18781,7 @@
         <v>2264</v>
       </c>
       <c r="D775" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="776" spans="1:4">
@@ -18798,7 +18795,7 @@
         <v>2263</v>
       </c>
       <c r="D776" t="s">
-        <v>2341</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="777" spans="1:4">
@@ -18812,7 +18809,7 @@
         <v>2264</v>
       </c>
       <c r="D777" t="s">
-        <v>2341</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="778" spans="1:4">
@@ -18826,7 +18823,7 @@
         <v>2263</v>
       </c>
       <c r="D778" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="779" spans="1:4">
@@ -18840,7 +18837,7 @@
         <v>2264</v>
       </c>
       <c r="D779" t="s">
-        <v>2341</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="780" spans="1:4">
@@ -18854,7 +18851,7 @@
         <v>2263</v>
       </c>
       <c r="D780" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="781" spans="1:4">
@@ -18868,7 +18865,7 @@
         <v>2264</v>
       </c>
       <c r="D781" t="s">
-        <v>2341</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="782" spans="1:4">
@@ -18882,7 +18879,7 @@
         <v>2263</v>
       </c>
       <c r="D782" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="783" spans="1:4">
@@ -18896,7 +18893,7 @@
         <v>2264</v>
       </c>
       <c r="D783" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="784" spans="1:4">
@@ -19302,7 +19299,7 @@
         <v>2266</v>
       </c>
       <c r="D812" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="813" spans="1:4">
@@ -19316,7 +19313,7 @@
         <v>2265</v>
       </c>
       <c r="D813" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="814" spans="1:4">
@@ -19330,7 +19327,7 @@
         <v>2265</v>
       </c>
       <c r="D814" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="815" spans="1:4">
@@ -19344,7 +19341,7 @@
         <v>2263</v>
       </c>
       <c r="D815" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="816" spans="1:4">
@@ -19358,7 +19355,7 @@
         <v>2263</v>
       </c>
       <c r="D816" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="817" spans="1:4">
@@ -19372,7 +19369,7 @@
         <v>2263</v>
       </c>
       <c r="D817" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="818" spans="1:4">
@@ -19386,7 +19383,7 @@
         <v>2263</v>
       </c>
       <c r="D818" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="819" spans="1:4">
@@ -19400,7 +19397,7 @@
         <v>2263</v>
       </c>
       <c r="D819" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="820" spans="1:4">
@@ -19414,7 +19411,7 @@
         <v>2263</v>
       </c>
       <c r="D820" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="821" spans="1:4">
@@ -19708,7 +19705,7 @@
         <v>2263</v>
       </c>
       <c r="D841" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="842" spans="1:4">
@@ -19722,7 +19719,7 @@
         <v>2264</v>
       </c>
       <c r="D842" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="843" spans="1:4">
@@ -19736,7 +19733,7 @@
         <v>2263</v>
       </c>
       <c r="D843" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="844" spans="1:4">
@@ -19750,7 +19747,7 @@
         <v>2264</v>
       </c>
       <c r="D844" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="845" spans="1:4">
@@ -19764,7 +19761,7 @@
         <v>2263</v>
       </c>
       <c r="D845" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="846" spans="1:4">
@@ -19778,7 +19775,7 @@
         <v>2264</v>
       </c>
       <c r="D846" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="847" spans="1:4">
@@ -20702,7 +20699,7 @@
         <v>2263</v>
       </c>
       <c r="D912" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="913" spans="1:4">
@@ -20716,7 +20713,7 @@
         <v>2263</v>
       </c>
       <c r="D913" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="914" spans="1:4">
@@ -20730,7 +20727,7 @@
         <v>2263</v>
       </c>
       <c r="D914" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="915" spans="1:4">
@@ -20926,7 +20923,7 @@
         <v>2263</v>
       </c>
       <c r="D928" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="929" spans="1:4">
@@ -20940,7 +20937,7 @@
         <v>2264</v>
       </c>
       <c r="D929" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="930" spans="1:4">
@@ -20954,7 +20951,7 @@
         <v>2263</v>
       </c>
       <c r="D930" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="931" spans="1:4">
@@ -20968,7 +20965,7 @@
         <v>2264</v>
       </c>
       <c r="D931" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="932" spans="1:4">
@@ -20982,7 +20979,7 @@
         <v>2263</v>
       </c>
       <c r="D932" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="933" spans="1:4">
@@ -20996,7 +20993,7 @@
         <v>2264</v>
       </c>
       <c r="D933" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="934" spans="1:4">
@@ -21010,7 +21007,7 @@
         <v>2263</v>
       </c>
       <c r="D934" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="935" spans="1:4">
@@ -21024,7 +21021,7 @@
         <v>2264</v>
       </c>
       <c r="D935" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="936" spans="1:4">
@@ -21038,7 +21035,7 @@
         <v>2263</v>
       </c>
       <c r="D936" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="937" spans="1:4">
@@ -21052,7 +21049,7 @@
         <v>2264</v>
       </c>
       <c r="D937" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="938" spans="1:4">
@@ -21066,7 +21063,7 @@
         <v>2263</v>
       </c>
       <c r="D938" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="939" spans="1:4">
@@ -21080,7 +21077,7 @@
         <v>2264</v>
       </c>
       <c r="D939" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="940" spans="1:4">
@@ -21122,7 +21119,7 @@
         <v>2265</v>
       </c>
       <c r="D942" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="943" spans="1:4">
@@ -21136,7 +21133,7 @@
         <v>2263</v>
       </c>
       <c r="D943" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="944" spans="1:4">
@@ -21150,7 +21147,7 @@
         <v>2263</v>
       </c>
       <c r="D944" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="945" spans="1:4">
@@ -21164,7 +21161,7 @@
         <v>2265</v>
       </c>
       <c r="D945" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="946" spans="1:4">
@@ -21178,7 +21175,7 @@
         <v>2266</v>
       </c>
       <c r="D946" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="947" spans="1:4">
@@ -21332,7 +21329,7 @@
         <v>2266</v>
       </c>
       <c r="D957" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="958" spans="1:4">
@@ -21346,7 +21343,7 @@
         <v>2264</v>
       </c>
       <c r="D958" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="959" spans="1:4">
@@ -21360,7 +21357,7 @@
         <v>2264</v>
       </c>
       <c r="D959" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="960" spans="1:4">
@@ -21374,7 +21371,7 @@
         <v>2263</v>
       </c>
       <c r="D960" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="961" spans="1:4">
@@ -21388,7 +21385,7 @@
         <v>2264</v>
       </c>
       <c r="D961" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="962" spans="1:4">
@@ -21402,7 +21399,7 @@
         <v>2264</v>
       </c>
       <c r="D962" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="963" spans="1:4">
@@ -21640,7 +21637,7 @@
         <v>2263</v>
       </c>
       <c r="D979" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="980" spans="1:4">
@@ -21654,7 +21651,7 @@
         <v>2266</v>
       </c>
       <c r="D980" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="981" spans="1:4">
@@ -21668,7 +21665,7 @@
         <v>2268</v>
       </c>
       <c r="D981" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="982" spans="1:4">
@@ -21682,7 +21679,7 @@
         <v>2268</v>
       </c>
       <c r="D982" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="983" spans="1:4">
@@ -21696,7 +21693,7 @@
         <v>2264</v>
       </c>
       <c r="D983" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="984" spans="1:4">
@@ -22004,7 +22001,7 @@
         <v>2263</v>
       </c>
       <c r="D1005" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1006" spans="1:4">
@@ -22158,7 +22155,7 @@
         <v>2263</v>
       </c>
       <c r="D1016" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1017" spans="1:4">
@@ -22242,7 +22239,7 @@
         <v>2263</v>
       </c>
       <c r="D1022" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1023" spans="1:4">
@@ -22256,7 +22253,7 @@
         <v>2263</v>
       </c>
       <c r="D1023" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1024" spans="1:4">
@@ -22270,7 +22267,7 @@
         <v>2263</v>
       </c>
       <c r="D1024" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1025" spans="1:4">
@@ -22284,7 +22281,7 @@
         <v>2263</v>
       </c>
       <c r="D1025" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1026" spans="1:4">
@@ -22298,7 +22295,7 @@
         <v>2263</v>
       </c>
       <c r="D1026" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1027" spans="1:4">
@@ -22312,7 +22309,7 @@
         <v>2263</v>
       </c>
       <c r="D1027" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1028" spans="1:4">
@@ -22550,7 +22547,7 @@
         <v>2263</v>
       </c>
       <c r="D1044" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="1045" spans="1:4">
@@ -22564,7 +22561,7 @@
         <v>2263</v>
       </c>
       <c r="D1045" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="1046" spans="1:4">
@@ -22592,7 +22589,7 @@
         <v>2263</v>
       </c>
       <c r="D1047" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="1048" spans="1:4">
@@ -22690,7 +22687,7 @@
         <v>2266</v>
       </c>
       <c r="D1054" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1055" spans="1:4">
@@ -22802,7 +22799,7 @@
         <v>2266</v>
       </c>
       <c r="D1062" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1063" spans="1:4">
@@ -22830,7 +22827,7 @@
         <v>2266</v>
       </c>
       <c r="D1064" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1065" spans="1:4">
@@ -22844,7 +22841,7 @@
         <v>2266</v>
       </c>
       <c r="D1065" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1066" spans="1:4">
@@ -22858,7 +22855,7 @@
         <v>2266</v>
       </c>
       <c r="D1066" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1067" spans="1:4">
@@ -22872,7 +22869,7 @@
         <v>2266</v>
       </c>
       <c r="D1067" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="1068" spans="1:4">
@@ -22984,7 +22981,7 @@
         <v>2265</v>
       </c>
       <c r="D1075" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1076" spans="1:4">
@@ -22998,7 +22995,7 @@
         <v>2265</v>
       </c>
       <c r="D1076" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1077" spans="1:4">
@@ -23012,7 +23009,7 @@
         <v>2265</v>
       </c>
       <c r="D1077" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1078" spans="1:4">
@@ -23026,7 +23023,7 @@
         <v>2265</v>
       </c>
       <c r="D1078" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1079" spans="1:4">
@@ -23040,7 +23037,7 @@
         <v>2265</v>
       </c>
       <c r="D1079" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1080" spans="1:4">
@@ -23054,7 +23051,7 @@
         <v>2265</v>
       </c>
       <c r="D1080" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="1081" spans="1:4">
@@ -23068,7 +23065,7 @@
         <v>2265</v>
       </c>
       <c r="D1081" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="1082" spans="1:4">
@@ -23096,7 +23093,7 @@
         <v>2265</v>
       </c>
       <c r="D1083" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="1084" spans="1:4">
@@ -23208,7 +23205,7 @@
         <v>2265</v>
       </c>
       <c r="D1091" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1092" spans="1:4">
@@ -23222,7 +23219,7 @@
         <v>2265</v>
       </c>
       <c r="D1092" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1093" spans="1:4">
@@ -23236,7 +23233,7 @@
         <v>2265</v>
       </c>
       <c r="D1093" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1094" spans="1:4">
@@ -23250,7 +23247,7 @@
         <v>2265</v>
       </c>
       <c r="D1094" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1095" spans="1:4">
@@ -23264,7 +23261,7 @@
         <v>2265</v>
       </c>
       <c r="D1095" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1096" spans="1:4">
@@ -23278,7 +23275,7 @@
         <v>2265</v>
       </c>
       <c r="D1096" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1097" spans="1:4">
@@ -23292,7 +23289,7 @@
         <v>2265</v>
       </c>
       <c r="D1097" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1098" spans="1:4">
@@ -23376,7 +23373,7 @@
         <v>2265</v>
       </c>
       <c r="D1103" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="1104" spans="1:4">
@@ -23474,7 +23471,7 @@
         <v>2265</v>
       </c>
       <c r="D1110" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1111" spans="1:4">
@@ -23488,7 +23485,7 @@
         <v>2265</v>
       </c>
       <c r="D1111" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1112" spans="1:4">
@@ -23502,7 +23499,7 @@
         <v>2265</v>
       </c>
       <c r="D1112" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1113" spans="1:4">
@@ -23558,7 +23555,7 @@
         <v>2265</v>
       </c>
       <c r="D1116" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="1117" spans="1:4">
@@ -23712,7 +23709,7 @@
         <v>2265</v>
       </c>
       <c r="D1127" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="1128" spans="1:4">
@@ -23796,7 +23793,7 @@
         <v>2266</v>
       </c>
       <c r="D1133" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1134" spans="1:4">
@@ -23838,7 +23835,7 @@
         <v>2265</v>
       </c>
       <c r="D1136" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1137" spans="1:4">
@@ -23880,7 +23877,7 @@
         <v>2265</v>
       </c>
       <c r="D1139" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1140" spans="1:4">
@@ -23894,7 +23891,7 @@
         <v>2265</v>
       </c>
       <c r="D1140" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1141" spans="1:4">
@@ -24118,7 +24115,7 @@
         <v>2266</v>
       </c>
       <c r="D1156" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1157" spans="1:4">
@@ -24188,7 +24185,7 @@
         <v>2266</v>
       </c>
       <c r="D1161" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1162" spans="1:4">
@@ -24202,7 +24199,7 @@
         <v>2265</v>
       </c>
       <c r="D1162" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1163" spans="1:4">
@@ -24314,7 +24311,7 @@
         <v>2263</v>
       </c>
       <c r="D1170" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1171" spans="1:4">
@@ -24398,7 +24395,7 @@
         <v>2263</v>
       </c>
       <c r="D1176" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1177" spans="1:4">
@@ -24636,7 +24633,7 @@
         <v>2263</v>
       </c>
       <c r="D1193" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1194" spans="1:4">
@@ -25210,7 +25207,7 @@
         <v>2264</v>
       </c>
       <c r="D1234" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1235" spans="1:4">
@@ -25462,7 +25459,7 @@
         <v>2263</v>
       </c>
       <c r="D1252" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1253" spans="1:4">
@@ -25476,7 +25473,7 @@
         <v>2264</v>
       </c>
       <c r="D1253" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1254" spans="1:4">
@@ -25490,7 +25487,7 @@
         <v>2263</v>
       </c>
       <c r="D1254" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1255" spans="1:4">
@@ -25504,7 +25501,7 @@
         <v>2264</v>
       </c>
       <c r="D1255" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1256" spans="1:4">
@@ -25518,7 +25515,7 @@
         <v>2263</v>
       </c>
       <c r="D1256" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1257" spans="1:4">
@@ -25532,7 +25529,7 @@
         <v>2264</v>
       </c>
       <c r="D1257" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1258" spans="1:4">
@@ -25588,7 +25585,7 @@
         <v>2263</v>
       </c>
       <c r="D1261" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="1262" spans="1:4">
@@ -25602,7 +25599,7 @@
         <v>2264</v>
       </c>
       <c r="D1262" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="1263" spans="1:4">
@@ -25784,7 +25781,7 @@
         <v>2263</v>
       </c>
       <c r="D1275" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1276" spans="1:4">
@@ -25798,7 +25795,7 @@
         <v>2264</v>
       </c>
       <c r="D1276" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1277" spans="1:4">
@@ -25854,7 +25851,7 @@
         <v>2263</v>
       </c>
       <c r="D1280" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="1281" spans="1:4">
@@ -25994,7 +25991,7 @@
         <v>2263</v>
       </c>
       <c r="D1290" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1291" spans="1:4">
@@ -26008,7 +26005,7 @@
         <v>2263</v>
       </c>
       <c r="D1291" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1292" spans="1:4">
@@ -26022,7 +26019,7 @@
         <v>2263</v>
       </c>
       <c r="D1292" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1293" spans="1:4">
@@ -26036,7 +26033,7 @@
         <v>2263</v>
       </c>
       <c r="D1293" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1294" spans="1:4">
@@ -26050,7 +26047,7 @@
         <v>2263</v>
       </c>
       <c r="D1294" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1295" spans="1:4">
@@ -26064,7 +26061,7 @@
         <v>2263</v>
       </c>
       <c r="D1295" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1296" spans="1:4">
@@ -26078,7 +26075,7 @@
         <v>2263</v>
       </c>
       <c r="D1296" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1297" spans="1:4">
@@ -26092,7 +26089,7 @@
         <v>2263</v>
       </c>
       <c r="D1297" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1298" spans="1:4">
@@ -26106,7 +26103,7 @@
         <v>2263</v>
       </c>
       <c r="D1298" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1299" spans="1:4">
@@ -26120,7 +26117,7 @@
         <v>2263</v>
       </c>
       <c r="D1299" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1300" spans="1:4">
@@ -26134,7 +26131,7 @@
         <v>2263</v>
       </c>
       <c r="D1300" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1301" spans="1:4">
@@ -26148,7 +26145,7 @@
         <v>2263</v>
       </c>
       <c r="D1301" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1302" spans="1:4">
@@ -26162,7 +26159,7 @@
         <v>2263</v>
       </c>
       <c r="D1302" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1303" spans="1:4">
@@ -26176,7 +26173,7 @@
         <v>2266</v>
       </c>
       <c r="D1303" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1304" spans="1:4">
@@ -26190,7 +26187,7 @@
         <v>2264</v>
       </c>
       <c r="D1304" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1305" spans="1:4">
@@ -26204,7 +26201,7 @@
         <v>2266</v>
       </c>
       <c r="D1305" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1306" spans="1:4">
@@ -26218,7 +26215,7 @@
         <v>2264</v>
       </c>
       <c r="D1306" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1307" spans="1:4">
@@ -26232,7 +26229,7 @@
         <v>2264</v>
       </c>
       <c r="D1307" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1308" spans="1:4">
@@ -26246,7 +26243,7 @@
         <v>2264</v>
       </c>
       <c r="D1308" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1309" spans="1:4">
@@ -26260,7 +26257,7 @@
         <v>2264</v>
       </c>
       <c r="D1309" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1310" spans="1:4">
@@ -26274,7 +26271,7 @@
         <v>2263</v>
       </c>
       <c r="D1310" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="1311" spans="1:4">
@@ -26288,7 +26285,7 @@
         <v>2264</v>
       </c>
       <c r="D1311" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1312" spans="1:4">
@@ -26302,7 +26299,7 @@
         <v>2265</v>
       </c>
       <c r="D1312" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="1313" spans="1:4">
@@ -26316,7 +26313,7 @@
         <v>2263</v>
       </c>
       <c r="D1313" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="1314" spans="1:4">
@@ -26358,7 +26355,7 @@
         <v>2263</v>
       </c>
       <c r="D1316" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="1317" spans="1:4">
@@ -26386,7 +26383,7 @@
         <v>2263</v>
       </c>
       <c r="D1318" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="1319" spans="1:4">
@@ -26414,7 +26411,7 @@
         <v>2263</v>
       </c>
       <c r="D1320" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="1321" spans="1:4">
@@ -26442,7 +26439,7 @@
         <v>2263</v>
       </c>
       <c r="D1322" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="1323" spans="1:4">
@@ -26470,7 +26467,7 @@
         <v>2263</v>
       </c>
       <c r="D1324" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="1325" spans="1:4">
@@ -26498,7 +26495,7 @@
         <v>2263</v>
       </c>
       <c r="D1326" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1327" spans="1:4">
@@ -26512,7 +26509,7 @@
         <v>2264</v>
       </c>
       <c r="D1327" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1328" spans="1:4">
@@ -26526,7 +26523,7 @@
         <v>2264</v>
       </c>
       <c r="D1328" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1329" spans="1:4">
@@ -26540,7 +26537,7 @@
         <v>2263</v>
       </c>
       <c r="D1329" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1330" spans="1:4">
@@ -26554,7 +26551,7 @@
         <v>2263</v>
       </c>
       <c r="D1330" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1331" spans="1:4">
@@ -26568,7 +26565,7 @@
         <v>2264</v>
       </c>
       <c r="D1331" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1332" spans="1:4">
@@ -26582,7 +26579,7 @@
         <v>2264</v>
       </c>
       <c r="D1332" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1333" spans="1:4">
@@ -26596,7 +26593,7 @@
         <v>2263</v>
       </c>
       <c r="D1333" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1334" spans="1:4">
@@ -26610,7 +26607,7 @@
         <v>2263</v>
       </c>
       <c r="D1334" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1335" spans="1:4">
@@ -26624,7 +26621,7 @@
         <v>2263</v>
       </c>
       <c r="D1335" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1336" spans="1:4">
@@ -26638,7 +26635,7 @@
         <v>2264</v>
       </c>
       <c r="D1336" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1337" spans="1:4">
@@ -26652,7 +26649,7 @@
         <v>2263</v>
       </c>
       <c r="D1337" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1338" spans="1:4">
@@ -27730,7 +27727,7 @@
         <v>2263</v>
       </c>
       <c r="D1414" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1415" spans="1:4">
@@ -27744,7 +27741,7 @@
         <v>2263</v>
       </c>
       <c r="D1415" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1416" spans="1:4">
@@ -27758,7 +27755,7 @@
         <v>2264</v>
       </c>
       <c r="D1416" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1417" spans="1:4">
@@ -27772,7 +27769,7 @@
         <v>2263</v>
       </c>
       <c r="D1417" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1418" spans="1:4">
@@ -27786,7 +27783,7 @@
         <v>2264</v>
       </c>
       <c r="D1418" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1419" spans="1:4">
@@ -27800,7 +27797,7 @@
         <v>2263</v>
       </c>
       <c r="D1419" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1420" spans="1:4">
@@ -27814,7 +27811,7 @@
         <v>2264</v>
       </c>
       <c r="D1420" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1421" spans="1:4">
@@ -27828,7 +27825,7 @@
         <v>2263</v>
       </c>
       <c r="D1421" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1422" spans="1:4">
@@ -27842,7 +27839,7 @@
         <v>2264</v>
       </c>
       <c r="D1422" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1423" spans="1:4">
@@ -27856,7 +27853,7 @@
         <v>2263</v>
       </c>
       <c r="D1423" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1424" spans="1:4">
@@ -27870,7 +27867,7 @@
         <v>2263</v>
       </c>
       <c r="D1424" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1425" spans="1:4">
@@ -27884,7 +27881,7 @@
         <v>2263</v>
       </c>
       <c r="D1425" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1426" spans="1:4">
@@ -27898,7 +27895,7 @@
         <v>2263</v>
       </c>
       <c r="D1426" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1427" spans="1:4">
@@ -27912,7 +27909,7 @@
         <v>2263</v>
       </c>
       <c r="D1427" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1428" spans="1:4">
@@ -27926,7 +27923,7 @@
         <v>2263</v>
       </c>
       <c r="D1428" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1429" spans="1:4">
@@ -27940,7 +27937,7 @@
         <v>2263</v>
       </c>
       <c r="D1429" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1430" spans="1:4">
@@ -27954,7 +27951,7 @@
         <v>2263</v>
       </c>
       <c r="D1430" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1431" spans="1:4">
@@ -27968,7 +27965,7 @@
         <v>2263</v>
       </c>
       <c r="D1431" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1432" spans="1:4">
@@ -27982,7 +27979,7 @@
         <v>2263</v>
       </c>
       <c r="D1432" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1433" spans="1:4">
@@ -27996,7 +27993,7 @@
         <v>2263</v>
       </c>
       <c r="D1433" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1434" spans="1:4">
@@ -28010,7 +28007,7 @@
         <v>2263</v>
       </c>
       <c r="D1434" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1435" spans="1:4">
@@ -28024,7 +28021,7 @@
         <v>2263</v>
       </c>
       <c r="D1435" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1436" spans="1:4">
@@ -28038,7 +28035,7 @@
         <v>2265</v>
       </c>
       <c r="D1436" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1437" spans="1:4">
@@ -28052,7 +28049,7 @@
         <v>2263</v>
       </c>
       <c r="D1437" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1438" spans="1:4">
@@ -28094,7 +28091,7 @@
         <v>2263</v>
       </c>
       <c r="D1440" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1441" spans="1:4">
@@ -28122,7 +28119,7 @@
         <v>2263</v>
       </c>
       <c r="D1442" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1443" spans="1:4">
@@ -28150,7 +28147,7 @@
         <v>2263</v>
       </c>
       <c r="D1444" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="1445" spans="1:4">
@@ -28164,7 +28161,7 @@
         <v>2263</v>
       </c>
       <c r="D1445" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="1446" spans="1:4">
@@ -28262,7 +28259,7 @@
         <v>2263</v>
       </c>
       <c r="D1452" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1453" spans="1:4">
@@ -28276,7 +28273,7 @@
         <v>2263</v>
       </c>
       <c r="D1453" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1454" spans="1:4">
@@ -28290,7 +28287,7 @@
         <v>2263</v>
       </c>
       <c r="D1454" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1455" spans="1:4">
@@ -28304,7 +28301,7 @@
         <v>2263</v>
       </c>
       <c r="D1455" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1456" spans="1:4">
@@ -28318,7 +28315,7 @@
         <v>2263</v>
       </c>
       <c r="D1456" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1457" spans="1:4">
@@ -28332,7 +28329,7 @@
         <v>2263</v>
       </c>
       <c r="D1457" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1458" spans="1:4">
@@ -28346,7 +28343,7 @@
         <v>2263</v>
       </c>
       <c r="D1458" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1459" spans="1:4">
@@ -28388,7 +28385,7 @@
         <v>2263</v>
       </c>
       <c r="D1461" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1462" spans="1:4">
@@ -28416,7 +28413,7 @@
         <v>2263</v>
       </c>
       <c r="D1463" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1464" spans="1:4">
@@ -28444,7 +28441,7 @@
         <v>2263</v>
       </c>
       <c r="D1465" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1466" spans="1:4">
@@ -28458,7 +28455,7 @@
         <v>2264</v>
       </c>
       <c r="D1466" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1467" spans="1:4">
@@ -28486,7 +28483,7 @@
         <v>2263</v>
       </c>
       <c r="D1468" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1469" spans="1:4">
@@ -28500,7 +28497,7 @@
         <v>2263</v>
       </c>
       <c r="D1469" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1470" spans="1:4">
@@ -28514,7 +28511,7 @@
         <v>2264</v>
       </c>
       <c r="D1470" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1471" spans="1:4">
@@ -28528,7 +28525,7 @@
         <v>2264</v>
       </c>
       <c r="D1471" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1472" spans="1:4">
@@ -28542,7 +28539,7 @@
         <v>2264</v>
       </c>
       <c r="D1472" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1473" spans="1:4">
@@ -28556,7 +28553,7 @@
         <v>2263</v>
       </c>
       <c r="D1473" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="1474" spans="1:4">
@@ -28612,7 +28609,7 @@
         <v>2263</v>
       </c>
       <c r="D1477" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="1478" spans="1:4">
@@ -28626,7 +28623,7 @@
         <v>2263</v>
       </c>
       <c r="D1478" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="1479" spans="1:4">
@@ -28640,7 +28637,7 @@
         <v>2264</v>
       </c>
       <c r="D1479" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="1480" spans="1:4">
@@ -28654,7 +28651,7 @@
         <v>2263</v>
       </c>
       <c r="D1480" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="1481" spans="1:4">
@@ -28668,7 +28665,7 @@
         <v>2264</v>
       </c>
       <c r="D1481" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="1482" spans="1:4">
@@ -28696,7 +28693,7 @@
         <v>2263</v>
       </c>
       <c r="D1483" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="1484" spans="1:4">
@@ -28710,7 +28707,7 @@
         <v>2263</v>
       </c>
       <c r="D1484" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="1485" spans="1:4">
@@ -29746,7 +29743,7 @@
         <v>2263</v>
       </c>
       <c r="D1558" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="1559" spans="1:4">
@@ -29760,7 +29757,7 @@
         <v>2263</v>
       </c>
       <c r="D1559" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="1560" spans="1:4">
@@ -29774,7 +29771,7 @@
         <v>2263</v>
       </c>
       <c r="D1560" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="1561" spans="1:4">
@@ -29788,7 +29785,7 @@
         <v>2263</v>
       </c>
       <c r="D1561" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="1562" spans="1:4">
@@ -29802,7 +29799,7 @@
         <v>2263</v>
       </c>
       <c r="D1562" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="1563" spans="1:4">
@@ -30068,7 +30065,7 @@
         <v>2263</v>
       </c>
       <c r="D1581" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1582" spans="1:4">
@@ -30096,7 +30093,7 @@
         <v>2263</v>
       </c>
       <c r="D1583" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1584" spans="1:4">
@@ -30110,7 +30107,7 @@
         <v>2265</v>
       </c>
       <c r="D1584" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1585" spans="1:4">
@@ -30124,7 +30121,7 @@
         <v>2265</v>
       </c>
       <c r="D1585" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1586" spans="1:4">
@@ -30446,7 +30443,7 @@
         <v>2274</v>
       </c>
       <c r="D1608" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1609" spans="1:4">
@@ -30460,7 +30457,7 @@
         <v>2274</v>
       </c>
       <c r="D1609" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1610" spans="1:4">
@@ -30614,7 +30611,7 @@
         <v>2273</v>
       </c>
       <c r="D1620" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="1621" spans="1:4">
@@ -30656,7 +30653,7 @@
         <v>2271</v>
       </c>
       <c r="D1623" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1624" spans="1:4">
@@ -30670,7 +30667,7 @@
         <v>2275</v>
       </c>
       <c r="D1624" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1625" spans="1:4">
@@ -30810,7 +30807,7 @@
         <v>2265</v>
       </c>
       <c r="D1634" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1635" spans="1:4">
@@ -30824,7 +30821,7 @@
         <v>2271</v>
       </c>
       <c r="D1635" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1636" spans="1:4">
@@ -30838,7 +30835,7 @@
         <v>2266</v>
       </c>
       <c r="D1636" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1637" spans="1:4">
@@ -30852,7 +30849,7 @@
         <v>2274</v>
       </c>
       <c r="D1637" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1638" spans="1:4">
@@ -30866,7 +30863,7 @@
         <v>2271</v>
       </c>
       <c r="D1638" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1639" spans="1:4">
@@ -30880,7 +30877,7 @@
         <v>2274</v>
       </c>
       <c r="D1639" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1640" spans="1:4">
@@ -30894,7 +30891,7 @@
         <v>2271</v>
       </c>
       <c r="D1640" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1641" spans="1:4">
@@ -30908,7 +30905,7 @@
         <v>2274</v>
       </c>
       <c r="D1641" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1642" spans="1:4">
@@ -30922,7 +30919,7 @@
         <v>2271</v>
       </c>
       <c r="D1642" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1643" spans="1:4">
@@ -30936,7 +30933,7 @@
         <v>2274</v>
       </c>
       <c r="D1643" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1644" spans="1:4">
@@ -30950,7 +30947,7 @@
         <v>2271</v>
       </c>
       <c r="D1644" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1645" spans="1:4">
@@ -30964,7 +30961,7 @@
         <v>2274</v>
       </c>
       <c r="D1645" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1646" spans="1:4">
@@ -30978,7 +30975,7 @@
         <v>2271</v>
       </c>
       <c r="D1646" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1647" spans="1:4">
@@ -31076,7 +31073,7 @@
         <v>2271</v>
       </c>
       <c r="D1653" t="s">
-        <v>2280</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="1654" spans="1:4">
@@ -31146,7 +31143,7 @@
         <v>2272</v>
       </c>
       <c r="D1658" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1659" spans="1:4">
@@ -31258,7 +31255,7 @@
         <v>2271</v>
       </c>
       <c r="D1666" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1667" spans="1:4">
@@ -31314,7 +31311,7 @@
         <v>2265</v>
       </c>
       <c r="D1670" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1671" spans="1:4">
@@ -31328,7 +31325,7 @@
         <v>2272</v>
       </c>
       <c r="D1671" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1672" spans="1:4">
@@ -31342,7 +31339,7 @@
         <v>2266</v>
       </c>
       <c r="D1672" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1673" spans="1:4">
@@ -31412,7 +31409,7 @@
         <v>2271</v>
       </c>
       <c r="D1677" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="1678" spans="1:4">
@@ -31426,7 +31423,7 @@
         <v>2266</v>
       </c>
       <c r="D1678" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="1679" spans="1:4">
@@ -31468,7 +31465,7 @@
         <v>2266</v>
       </c>
       <c r="D1681" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="1682" spans="1:4">
@@ -32000,7 +31997,7 @@
         <v>2271</v>
       </c>
       <c r="D1719" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="1720" spans="1:4">
@@ -32084,7 +32081,7 @@
         <v>2271</v>
       </c>
       <c r="D1725" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1726" spans="1:4">
@@ -32126,7 +32123,7 @@
         <v>2274</v>
       </c>
       <c r="D1728" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1729" spans="1:4">
@@ -32140,7 +32137,7 @@
         <v>2271</v>
       </c>
       <c r="D1729" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1730" spans="1:4">
@@ -32154,7 +32151,7 @@
         <v>2274</v>
       </c>
       <c r="D1730" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1731" spans="1:4">
@@ -32168,7 +32165,7 @@
         <v>2271</v>
       </c>
       <c r="D1731" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1732" spans="1:4">
@@ -32182,7 +32179,7 @@
         <v>2271</v>
       </c>
       <c r="D1732" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1733" spans="1:4">
@@ -32196,7 +32193,7 @@
         <v>2271</v>
       </c>
       <c r="D1733" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1734" spans="1:4">
@@ -32210,7 +32207,7 @@
         <v>2271</v>
       </c>
       <c r="D1734" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1735" spans="1:4">
@@ -32224,7 +32221,7 @@
         <v>2274</v>
       </c>
       <c r="D1735" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1736" spans="1:4">
@@ -32238,7 +32235,7 @@
         <v>2271</v>
       </c>
       <c r="D1736" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1737" spans="1:4">
@@ -32252,7 +32249,7 @@
         <v>2274</v>
       </c>
       <c r="D1737" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1738" spans="1:4">
@@ -32266,7 +32263,7 @@
         <v>2271</v>
       </c>
       <c r="D1738" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1739" spans="1:4">
@@ -32308,7 +32305,7 @@
         <v>2274</v>
       </c>
       <c r="D1741" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1742" spans="1:4">
@@ -32322,7 +32319,7 @@
         <v>2271</v>
       </c>
       <c r="D1742" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1743" spans="1:4">
@@ -32448,7 +32445,7 @@
         <v>2271</v>
       </c>
       <c r="D1751" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1752" spans="1:4">
@@ -32546,7 +32543,7 @@
         <v>2272</v>
       </c>
       <c r="D1758" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1759" spans="1:4">
@@ -32560,7 +32557,7 @@
         <v>2275</v>
       </c>
       <c r="D1759" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1760" spans="1:4">
@@ -32686,7 +32683,7 @@
         <v>2276</v>
       </c>
       <c r="D1768" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="1769" spans="1:4">
@@ -32700,7 +32697,7 @@
         <v>2276</v>
       </c>
       <c r="D1769" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="1770" spans="1:4">
@@ -32714,7 +32711,7 @@
         <v>2276</v>
       </c>
       <c r="D1770" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1771" spans="1:4">
@@ -32728,7 +32725,7 @@
         <v>2276</v>
       </c>
       <c r="D1771" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1772" spans="1:4">
@@ -32742,7 +32739,7 @@
         <v>2276</v>
       </c>
       <c r="D1772" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1773" spans="1:4">
@@ -32756,7 +32753,7 @@
         <v>2275</v>
       </c>
       <c r="D1773" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1774" spans="1:4">
@@ -32784,7 +32781,7 @@
         <v>2275</v>
       </c>
       <c r="D1775" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1776" spans="1:4">
@@ -32798,7 +32795,7 @@
         <v>2272</v>
       </c>
       <c r="D1776" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1777" spans="1:4">
@@ -32854,7 +32851,7 @@
         <v>2273</v>
       </c>
       <c r="D1780" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1781" spans="1:4">
@@ -32910,7 +32907,7 @@
         <v>2266</v>
       </c>
       <c r="D1784" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1785" spans="1:4">
@@ -32924,7 +32921,7 @@
         <v>2266</v>
       </c>
       <c r="D1785" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1786" spans="1:4">
@@ -32938,7 +32935,7 @@
         <v>2265</v>
       </c>
       <c r="D1786" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1787" spans="1:4">
@@ -32980,7 +32977,7 @@
         <v>2265</v>
       </c>
       <c r="D1789" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="1790" spans="1:4">
@@ -32994,7 +32991,7 @@
         <v>2265</v>
       </c>
       <c r="D1790" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1791" spans="1:4">
@@ -33008,7 +33005,7 @@
         <v>2265</v>
       </c>
       <c r="D1791" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="1792" spans="1:4">
@@ -33134,7 +33131,7 @@
         <v>2273</v>
       </c>
       <c r="D1800" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1801" spans="1:4">
@@ -33232,7 +33229,7 @@
         <v>2273</v>
       </c>
       <c r="D1807" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1808" spans="1:4">
@@ -33260,7 +33257,7 @@
         <v>2273</v>
       </c>
       <c r="D1809" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1810" spans="1:4">
@@ -33274,7 +33271,7 @@
         <v>2272</v>
       </c>
       <c r="D1810" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1811" spans="1:4">
@@ -33288,7 +33285,7 @@
         <v>2273</v>
       </c>
       <c r="D1811" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1812" spans="1:4">
@@ -33302,7 +33299,7 @@
         <v>2273</v>
       </c>
       <c r="D1812" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1813" spans="1:4">
@@ -33330,7 +33327,7 @@
         <v>2273</v>
       </c>
       <c r="D1814" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="1815" spans="1:4">
@@ -33372,7 +33369,7 @@
         <v>2265</v>
       </c>
       <c r="D1817" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1818" spans="1:4">
@@ -33386,7 +33383,7 @@
         <v>2266</v>
       </c>
       <c r="D1818" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1819" spans="1:4">
@@ -33414,7 +33411,7 @@
         <v>2273</v>
       </c>
       <c r="D1820" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1821" spans="1:4">
@@ -33428,7 +33425,7 @@
         <v>2273</v>
       </c>
       <c r="D1821" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1822" spans="1:4">
@@ -33442,7 +33439,7 @@
         <v>2272</v>
       </c>
       <c r="D1822" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1823" spans="1:4">
@@ -33456,7 +33453,7 @@
         <v>2275</v>
       </c>
       <c r="D1823" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1824" spans="1:4">
@@ -33498,7 +33495,7 @@
         <v>2274</v>
       </c>
       <c r="D1826" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1827" spans="1:4">
@@ -33568,7 +33565,7 @@
         <v>2274</v>
       </c>
       <c r="D1831" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1832" spans="1:4">
@@ -33582,7 +33579,7 @@
         <v>2274</v>
       </c>
       <c r="D1832" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1833" spans="1:4">
@@ -33596,7 +33593,7 @@
         <v>2274</v>
       </c>
       <c r="D1833" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1834" spans="1:4">
@@ -33610,7 +33607,7 @@
         <v>2274</v>
       </c>
       <c r="D1834" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1835" spans="1:4">
@@ -33638,7 +33635,7 @@
         <v>2274</v>
       </c>
       <c r="D1836" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1837" spans="1:4">
@@ -33708,7 +33705,7 @@
         <v>2274</v>
       </c>
       <c r="D1841" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1842" spans="1:4">
@@ -33722,7 +33719,7 @@
         <v>2274</v>
       </c>
       <c r="D1842" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1843" spans="1:4">
@@ -33736,7 +33733,7 @@
         <v>2271</v>
       </c>
       <c r="D1843" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1844" spans="1:4">
@@ -33750,7 +33747,7 @@
         <v>2271</v>
       </c>
       <c r="D1844" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1845" spans="1:4">
@@ -33764,7 +33761,7 @@
         <v>2271</v>
       </c>
       <c r="D1845" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1846" spans="1:4">
@@ -33778,7 +33775,7 @@
         <v>2271</v>
       </c>
       <c r="D1846" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1847" spans="1:4">
@@ -33974,7 +33971,7 @@
         <v>2274</v>
       </c>
       <c r="D1860" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1861" spans="1:4">
@@ -33988,7 +33985,7 @@
         <v>2271</v>
       </c>
       <c r="D1861" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1862" spans="1:4">
@@ -34002,7 +33999,7 @@
         <v>2271</v>
       </c>
       <c r="D1862" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1863" spans="1:4">
@@ -34016,7 +34013,7 @@
         <v>2274</v>
       </c>
       <c r="D1863" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1864" spans="1:4">
@@ -34030,7 +34027,7 @@
         <v>2274</v>
       </c>
       <c r="D1864" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1865" spans="1:4">
@@ -34044,7 +34041,7 @@
         <v>2271</v>
       </c>
       <c r="D1865" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1866" spans="1:4">
@@ -34058,7 +34055,7 @@
         <v>2271</v>
       </c>
       <c r="D1866" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1867" spans="1:4">
@@ -34072,7 +34069,7 @@
         <v>2274</v>
       </c>
       <c r="D1867" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1868" spans="1:4">
@@ -34086,7 +34083,7 @@
         <v>2274</v>
       </c>
       <c r="D1868" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1869" spans="1:4">
@@ -34100,7 +34097,7 @@
         <v>2276</v>
       </c>
       <c r="D1869" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="1870" spans="1:4">
@@ -34674,7 +34671,7 @@
         <v>2274</v>
       </c>
       <c r="D1910" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1911" spans="1:4">
@@ -34688,7 +34685,7 @@
         <v>2271</v>
       </c>
       <c r="D1911" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1912" spans="1:4">
@@ -34702,7 +34699,7 @@
         <v>2274</v>
       </c>
       <c r="D1912" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1913" spans="1:4">
@@ -34716,7 +34713,7 @@
         <v>2274</v>
       </c>
       <c r="D1913" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1914" spans="1:4">
@@ -34730,7 +34727,7 @@
         <v>2274</v>
       </c>
       <c r="D1914" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1915" spans="1:4">
@@ -34744,7 +34741,7 @@
         <v>2274</v>
       </c>
       <c r="D1915" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1916" spans="1:4">
@@ -34758,7 +34755,7 @@
         <v>2271</v>
       </c>
       <c r="D1916" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1917" spans="1:4">
@@ -34772,7 +34769,7 @@
         <v>2274</v>
       </c>
       <c r="D1917" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1918" spans="1:4">
@@ -34786,7 +34783,7 @@
         <v>2271</v>
       </c>
       <c r="D1918" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1919" spans="1:4">
@@ -34800,7 +34797,7 @@
         <v>2274</v>
       </c>
       <c r="D1919" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1920" spans="1:4">
@@ -34814,7 +34811,7 @@
         <v>2271</v>
       </c>
       <c r="D1920" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1921" spans="1:4">
@@ -34828,7 +34825,7 @@
         <v>2274</v>
       </c>
       <c r="D1921" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1922" spans="1:4">
@@ -34842,7 +34839,7 @@
         <v>2274</v>
       </c>
       <c r="D1922" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1923" spans="1:4">
@@ -34856,7 +34853,7 @@
         <v>2271</v>
       </c>
       <c r="D1923" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1924" spans="1:4">
@@ -34870,7 +34867,7 @@
         <v>2274</v>
       </c>
       <c r="D1924" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1925" spans="1:4">
@@ -34884,7 +34881,7 @@
         <v>2274</v>
       </c>
       <c r="D1925" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1926" spans="1:4">
@@ -34898,7 +34895,7 @@
         <v>2271</v>
       </c>
       <c r="D1926" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1927" spans="1:4">
@@ -35066,7 +35063,7 @@
         <v>2274</v>
       </c>
       <c r="D1938" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1939" spans="1:4">
@@ -35094,7 +35091,7 @@
         <v>2274</v>
       </c>
       <c r="D1940" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1941" spans="1:4">
@@ -35108,7 +35105,7 @@
         <v>2274</v>
       </c>
       <c r="D1941" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1942" spans="1:4">
@@ -35122,7 +35119,7 @@
         <v>2274</v>
       </c>
       <c r="D1942" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1943" spans="1:4">
@@ -35136,7 +35133,7 @@
         <v>2274</v>
       </c>
       <c r="D1943" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1944" spans="1:4">
@@ -35150,7 +35147,7 @@
         <v>2274</v>
       </c>
       <c r="D1944" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1945" spans="1:4">
@@ -35178,7 +35175,7 @@
         <v>2274</v>
       </c>
       <c r="D1946" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1947" spans="1:4">
@@ -35220,7 +35217,7 @@
         <v>2271</v>
       </c>
       <c r="D1949" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1950" spans="1:4">
@@ -35234,7 +35231,7 @@
         <v>2271</v>
       </c>
       <c r="D1950" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1951" spans="1:4">
@@ -35472,7 +35469,7 @@
         <v>2276</v>
       </c>
       <c r="D1967" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1968" spans="1:4">
@@ -35486,7 +35483,7 @@
         <v>2276</v>
       </c>
       <c r="D1968" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1969" spans="1:4">
@@ -35500,7 +35497,7 @@
         <v>2276</v>
       </c>
       <c r="D1969" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1970" spans="1:4">
@@ -35514,7 +35511,7 @@
         <v>2276</v>
       </c>
       <c r="D1970" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1971" spans="1:4">
@@ -35528,7 +35525,7 @@
         <v>2276</v>
       </c>
       <c r="D1971" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1972" spans="1:4">
@@ -35542,7 +35539,7 @@
         <v>2276</v>
       </c>
       <c r="D1972" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="1973" spans="1:4">
@@ -35556,7 +35553,7 @@
         <v>2276</v>
       </c>
       <c r="D1973" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="1974" spans="1:4">
@@ -35570,7 +35567,7 @@
         <v>2276</v>
       </c>
       <c r="D1974" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="1975" spans="1:4">
@@ -35584,7 +35581,7 @@
         <v>2276</v>
       </c>
       <c r="D1975" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="1976" spans="1:4">
@@ -35598,7 +35595,7 @@
         <v>2276</v>
       </c>
       <c r="D1976" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="1977" spans="1:4">
@@ -35612,7 +35609,7 @@
         <v>2276</v>
       </c>
       <c r="D1977" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="1978" spans="1:4">
@@ -35626,7 +35623,7 @@
         <v>2276</v>
       </c>
       <c r="D1978" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="1979" spans="1:4">
@@ -35640,7 +35637,7 @@
         <v>2276</v>
       </c>
       <c r="D1979" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="1980" spans="1:4">
@@ -35654,7 +35651,7 @@
         <v>2276</v>
       </c>
       <c r="D1980" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="1981" spans="1:4">
@@ -35668,7 +35665,7 @@
         <v>2276</v>
       </c>
       <c r="D1981" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="1982" spans="1:4">
@@ -35682,7 +35679,7 @@
         <v>2276</v>
       </c>
       <c r="D1982" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="1983" spans="1:4">
@@ -35696,7 +35693,7 @@
         <v>2276</v>
       </c>
       <c r="D1983" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="1984" spans="1:4">
@@ -35710,7 +35707,7 @@
         <v>2276</v>
       </c>
       <c r="D1984" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="1985" spans="1:4">
@@ -35724,7 +35721,7 @@
         <v>2276</v>
       </c>
       <c r="D1985" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="1986" spans="1:4">
@@ -35738,7 +35735,7 @@
         <v>2276</v>
       </c>
       <c r="D1986" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="1987" spans="1:4">
@@ -35752,7 +35749,7 @@
         <v>2276</v>
       </c>
       <c r="D1987" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="1988" spans="1:4">
@@ -35766,7 +35763,7 @@
         <v>2276</v>
       </c>
       <c r="D1988" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="1989" spans="1:4">
@@ -35780,7 +35777,7 @@
         <v>2276</v>
       </c>
       <c r="D1989" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="1990" spans="1:4">
@@ -35794,7 +35791,7 @@
         <v>2276</v>
       </c>
       <c r="D1990" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="1991" spans="1:4">
@@ -35808,7 +35805,7 @@
         <v>2276</v>
       </c>
       <c r="D1991" t="s">
-        <v>2388</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="1992" spans="1:4">
@@ -35822,7 +35819,7 @@
         <v>2276</v>
       </c>
       <c r="D1992" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="1993" spans="1:4">
@@ -35836,7 +35833,7 @@
         <v>2276</v>
       </c>
       <c r="D1993" t="s">
-        <v>2390</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="1994" spans="1:4">
@@ -35850,7 +35847,7 @@
         <v>2276</v>
       </c>
       <c r="D1994" t="s">
-        <v>2391</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="1995" spans="1:4">
@@ -35864,7 +35861,7 @@
         <v>2276</v>
       </c>
       <c r="D1995" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="1996" spans="1:4">
@@ -35878,7 +35875,7 @@
         <v>2276</v>
       </c>
       <c r="D1996" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="1997" spans="1:4">
@@ -35892,7 +35889,7 @@
         <v>2276</v>
       </c>
       <c r="D1997" t="s">
-        <v>2394</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="1998" spans="1:4">
@@ -35906,7 +35903,7 @@
         <v>2276</v>
       </c>
       <c r="D1998" t="s">
-        <v>2395</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="1999" spans="1:4">
@@ -35920,7 +35917,7 @@
         <v>2276</v>
       </c>
       <c r="D1999" t="s">
-        <v>2396</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="2000" spans="1:4">
@@ -35934,7 +35931,7 @@
         <v>2276</v>
       </c>
       <c r="D2000" t="s">
-        <v>2397</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="2001" spans="1:4">
@@ -35948,7 +35945,7 @@
         <v>2276</v>
       </c>
       <c r="D2001" t="s">
-        <v>2398</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="2002" spans="1:4">
@@ -35962,7 +35959,7 @@
         <v>2276</v>
       </c>
       <c r="D2002" t="s">
-        <v>2399</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="2003" spans="1:4">
@@ -35976,7 +35973,7 @@
         <v>2276</v>
       </c>
       <c r="D2003" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="2004" spans="1:4">
@@ -35990,7 +35987,7 @@
         <v>2276</v>
       </c>
       <c r="D2004" t="s">
-        <v>2401</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="2005" spans="1:4">
@@ -36004,7 +36001,7 @@
         <v>2276</v>
       </c>
       <c r="D2005" t="s">
-        <v>2402</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="2006" spans="1:4">
@@ -36018,7 +36015,7 @@
         <v>2276</v>
       </c>
       <c r="D2006" t="s">
-        <v>2403</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="2007" spans="1:4">
@@ -36032,7 +36029,7 @@
         <v>2276</v>
       </c>
       <c r="D2007" t="s">
-        <v>2404</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="2008" spans="1:4">
@@ -36046,7 +36043,7 @@
         <v>2276</v>
       </c>
       <c r="D2008" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="2009" spans="1:4">
@@ -36060,7 +36057,7 @@
         <v>2276</v>
       </c>
       <c r="D2009" t="s">
-        <v>2405</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="2010" spans="1:4">
@@ -36074,7 +36071,7 @@
         <v>2276</v>
       </c>
       <c r="D2010" t="s">
-        <v>2406</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="2011" spans="1:4">
@@ -36088,7 +36085,7 @@
         <v>2276</v>
       </c>
       <c r="D2011" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="2012" spans="1:4">
@@ -36102,7 +36099,7 @@
         <v>2276</v>
       </c>
       <c r="D2012" t="s">
-        <v>2408</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="2013" spans="1:4">
@@ -36116,7 +36113,7 @@
         <v>2276</v>
       </c>
       <c r="D2013" t="s">
-        <v>2409</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="2014" spans="1:4">
@@ -36130,7 +36127,7 @@
         <v>2276</v>
       </c>
       <c r="D2014" t="s">
-        <v>2410</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="2015" spans="1:4">
@@ -36144,7 +36141,7 @@
         <v>2276</v>
       </c>
       <c r="D2015" t="s">
-        <v>2411</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="2016" spans="1:4">
@@ -36158,7 +36155,7 @@
         <v>2276</v>
       </c>
       <c r="D2016" t="s">
-        <v>2412</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="2017" spans="1:4">
@@ -36172,7 +36169,7 @@
         <v>2276</v>
       </c>
       <c r="D2017" t="s">
-        <v>2413</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="2018" spans="1:4">
@@ -36186,7 +36183,7 @@
         <v>2276</v>
       </c>
       <c r="D2018" t="s">
-        <v>2414</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="2019" spans="1:4">
@@ -36200,7 +36197,7 @@
         <v>2276</v>
       </c>
       <c r="D2019" t="s">
-        <v>2415</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="2020" spans="1:4">
@@ -36214,7 +36211,7 @@
         <v>2276</v>
       </c>
       <c r="D2020" t="s">
-        <v>2416</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="2021" spans="1:4">
@@ -36228,7 +36225,7 @@
         <v>2276</v>
       </c>
       <c r="D2021" t="s">
-        <v>2417</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="2022" spans="1:4">
@@ -36242,7 +36239,7 @@
         <v>2276</v>
       </c>
       <c r="D2022" t="s">
-        <v>2418</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="2023" spans="1:4">
@@ -36256,7 +36253,7 @@
         <v>2276</v>
       </c>
       <c r="D2023" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="2024" spans="1:4">
@@ -36270,7 +36267,7 @@
         <v>2276</v>
       </c>
       <c r="D2024" t="s">
-        <v>2420</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="2025" spans="1:4">
@@ -36284,7 +36281,7 @@
         <v>2276</v>
       </c>
       <c r="D2025" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="2026" spans="1:4">
@@ -36298,7 +36295,7 @@
         <v>2276</v>
       </c>
       <c r="D2026" t="s">
-        <v>2421</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="2027" spans="1:4">
@@ -36312,7 +36309,7 @@
         <v>2275</v>
       </c>
       <c r="D2027" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="2028" spans="1:4">
@@ -36326,7 +36323,7 @@
         <v>2273</v>
       </c>
       <c r="D2028" t="s">
-        <v>2422</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="2029" spans="1:4">
@@ -36340,7 +36337,7 @@
         <v>2275</v>
       </c>
       <c r="D2029" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="2030" spans="1:4">
@@ -36354,7 +36351,7 @@
         <v>2275</v>
       </c>
       <c r="D2030" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="2031" spans="1:4">
@@ -36368,7 +36365,7 @@
         <v>2275</v>
       </c>
       <c r="D2031" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="2032" spans="1:4">
@@ -36382,7 +36379,7 @@
         <v>2275</v>
       </c>
       <c r="D2032" t="s">
-        <v>2423</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="2033" spans="1:4">
@@ -36396,7 +36393,7 @@
         <v>2273</v>
       </c>
       <c r="D2033" t="s">
-        <v>2424</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="2034" spans="1:4">
@@ -36466,7 +36463,7 @@
         <v>2276</v>
       </c>
       <c r="D2038" t="s">
-        <v>2425</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="2039" spans="1:4">
@@ -36494,7 +36491,7 @@
         <v>2276</v>
       </c>
       <c r="D2040" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="2041" spans="1:4">
@@ -36536,7 +36533,7 @@
         <v>2273</v>
       </c>
       <c r="D2043" t="s">
-        <v>2426</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="2044" spans="1:4">
@@ -36564,7 +36561,7 @@
         <v>2273</v>
       </c>
       <c r="D2045" t="s">
-        <v>2427</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="2046" spans="1:4">
@@ -36578,7 +36575,7 @@
         <v>2273</v>
       </c>
       <c r="D2046" t="s">
-        <v>2428</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="2047" spans="1:4">
@@ -36592,7 +36589,7 @@
         <v>2273</v>
       </c>
       <c r="D2047" t="s">
-        <v>2429</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="2048" spans="1:4">
@@ -36662,7 +36659,7 @@
         <v>2272</v>
       </c>
       <c r="D2052" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="2053" spans="1:4">
@@ -36690,7 +36687,7 @@
         <v>2275</v>
       </c>
       <c r="D2054" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="2055" spans="1:4">
@@ -36718,7 +36715,7 @@
         <v>2276</v>
       </c>
       <c r="D2056" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="2057" spans="1:4">
@@ -36746,7 +36743,7 @@
         <v>2275</v>
       </c>
       <c r="D2058" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="2059" spans="1:4">
@@ -36816,7 +36813,7 @@
         <v>2276</v>
       </c>
       <c r="D2063" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="2064" spans="1:4">
@@ -36858,7 +36855,7 @@
         <v>2276</v>
       </c>
       <c r="D2066" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="2067" spans="1:4">
@@ -36872,7 +36869,7 @@
         <v>2273</v>
       </c>
       <c r="D2067" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="2068" spans="1:4">
@@ -36914,7 +36911,7 @@
         <v>2275</v>
       </c>
       <c r="D2070" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="2071" spans="1:4">
@@ -37012,7 +37009,7 @@
         <v>2276</v>
       </c>
       <c r="D2077" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="2078" spans="1:4">
@@ -37026,7 +37023,7 @@
         <v>2276</v>
       </c>
       <c r="D2078" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="2079" spans="1:4">
@@ -37054,7 +37051,7 @@
         <v>2276</v>
       </c>
       <c r="D2080" t="s">
-        <v>2432</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="2081" spans="1:4">
@@ -37082,7 +37079,7 @@
         <v>2276</v>
       </c>
       <c r="D2082" t="s">
-        <v>2433</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="2083" spans="1:4">
@@ -37124,7 +37121,7 @@
         <v>2276</v>
       </c>
       <c r="D2085" t="s">
-        <v>2434</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="2086" spans="1:4">
@@ -37166,7 +37163,7 @@
         <v>2276</v>
       </c>
       <c r="D2088" t="s">
-        <v>2435</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="2089" spans="1:4">
@@ -37180,7 +37177,7 @@
         <v>2276</v>
       </c>
       <c r="D2089" t="s">
-        <v>2436</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="2090" spans="1:4">
@@ -37194,7 +37191,7 @@
         <v>2276</v>
       </c>
       <c r="D2090" t="s">
-        <v>2437</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="2091" spans="1:4">
@@ -37208,7 +37205,7 @@
         <v>2276</v>
       </c>
       <c r="D2091" t="s">
-        <v>2438</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="2092" spans="1:4">
@@ -37222,7 +37219,7 @@
         <v>2276</v>
       </c>
       <c r="D2092" t="s">
-        <v>2439</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="2093" spans="1:4">
@@ -37236,7 +37233,7 @@
         <v>2276</v>
       </c>
       <c r="D2093" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="2094" spans="1:4">
@@ -37250,7 +37247,7 @@
         <v>2276</v>
       </c>
       <c r="D2094" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="2095" spans="1:4">
@@ -37278,7 +37275,7 @@
         <v>2276</v>
       </c>
       <c r="D2096" t="s">
-        <v>2440</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="2097" spans="1:4">
@@ -37292,7 +37289,7 @@
         <v>2276</v>
       </c>
       <c r="D2097" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="2098" spans="1:4">
@@ -37404,7 +37401,7 @@
         <v>2272</v>
       </c>
       <c r="D2105" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="2106" spans="1:4">
@@ -37432,7 +37429,7 @@
         <v>2275</v>
       </c>
       <c r="D2107" t="s">
-        <v>2441</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="2108" spans="1:4">
@@ -37446,7 +37443,7 @@
         <v>2273</v>
       </c>
       <c r="D2108" t="s">
-        <v>2442</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="2109" spans="1:4">
@@ -37460,7 +37457,7 @@
         <v>2275</v>
       </c>
       <c r="D2109" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="2110" spans="1:4">
@@ -37474,7 +37471,7 @@
         <v>2273</v>
       </c>
       <c r="D2110" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="2111" spans="1:4">
@@ -37488,7 +37485,7 @@
         <v>2273</v>
       </c>
       <c r="D2111" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="2112" spans="1:4">
@@ -37530,7 +37527,7 @@
         <v>2275</v>
       </c>
       <c r="D2114" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="2115" spans="1:4">
@@ -37572,7 +37569,7 @@
         <v>2275</v>
       </c>
       <c r="D2117" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="2118" spans="1:4">
@@ -37586,7 +37583,7 @@
         <v>2273</v>
       </c>
       <c r="D2118" t="s">
-        <v>2445</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="2119" spans="1:4">
@@ -37600,7 +37597,7 @@
         <v>2275</v>
       </c>
       <c r="D2119" t="s">
-        <v>2445</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="2120" spans="1:4">
@@ -37614,7 +37611,7 @@
         <v>2275</v>
       </c>
       <c r="D2120" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="2121" spans="1:4">
@@ -37628,7 +37625,7 @@
         <v>2275</v>
       </c>
       <c r="D2121" t="s">
-        <v>2446</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="2122" spans="1:4">
@@ -37670,7 +37667,7 @@
         <v>2272</v>
       </c>
       <c r="D2124" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="2125" spans="1:4">
@@ -37684,7 +37681,7 @@
         <v>2276</v>
       </c>
       <c r="D2125" t="s">
-        <v>2447</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="2126" spans="1:4">
@@ -37698,7 +37695,7 @@
         <v>2273</v>
       </c>
       <c r="D2126" t="s">
-        <v>2448</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="2127" spans="1:4">
@@ -37712,7 +37709,7 @@
         <v>2275</v>
       </c>
       <c r="D2127" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="2128" spans="1:4">
@@ -37726,7 +37723,7 @@
         <v>2273</v>
       </c>
       <c r="D2128" t="s">
-        <v>2449</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="2129" spans="1:4">
@@ -37740,7 +37737,7 @@
         <v>2273</v>
       </c>
       <c r="D2129" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="2130" spans="1:4">
@@ -37754,7 +37751,7 @@
         <v>2273</v>
       </c>
       <c r="D2130" t="s">
-        <v>2450</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="2131" spans="1:4">
@@ -37796,7 +37793,7 @@
         <v>2275</v>
       </c>
       <c r="D2133" t="s">
-        <v>2451</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="2134" spans="1:4">
@@ -37810,7 +37807,7 @@
         <v>2276</v>
       </c>
       <c r="D2134" t="s">
-        <v>2452</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="2135" spans="1:4">
@@ -37824,7 +37821,7 @@
         <v>2276</v>
       </c>
       <c r="D2135" t="s">
-        <v>2328</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="2136" spans="1:4">
@@ -37838,7 +37835,7 @@
         <v>2276</v>
       </c>
       <c r="D2136" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="2137" spans="1:4">
@@ -37852,7 +37849,7 @@
         <v>2273</v>
       </c>
       <c r="D2137" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="2138" spans="1:4">
@@ -37894,7 +37891,7 @@
         <v>2276</v>
       </c>
       <c r="D2140" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="2141" spans="1:4">
@@ -37936,7 +37933,7 @@
         <v>2272</v>
       </c>
       <c r="D2143" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="2144" spans="1:4">
@@ -37978,7 +37975,7 @@
         <v>2276</v>
       </c>
       <c r="D2146" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="2147" spans="1:4">
@@ -38020,7 +38017,7 @@
         <v>2272</v>
       </c>
       <c r="D2149" t="s">
-        <v>2422</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="2150" spans="1:4">
@@ -38034,7 +38031,7 @@
         <v>2273</v>
       </c>
       <c r="D2150" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="2151" spans="1:4">
@@ -38048,7 +38045,7 @@
         <v>2275</v>
       </c>
       <c r="D2151" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="2152" spans="1:4">
@@ -38062,7 +38059,7 @@
         <v>2275</v>
       </c>
       <c r="D2152" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="2153" spans="1:4">
@@ -38076,7 +38073,7 @@
         <v>2276</v>
       </c>
       <c r="D2153" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="2154" spans="1:4">
@@ -38104,7 +38101,7 @@
         <v>2276</v>
       </c>
       <c r="D2155" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="2156" spans="1:4">
@@ -38118,7 +38115,7 @@
         <v>2276</v>
       </c>
       <c r="D2156" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="2157" spans="1:4">
@@ -38132,7 +38129,7 @@
         <v>2276</v>
       </c>
       <c r="D2157" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="2158" spans="1:4">
@@ -38146,7 +38143,7 @@
         <v>2273</v>
       </c>
       <c r="D2158" t="s">
-        <v>2451</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="2159" spans="1:4">
@@ -38160,7 +38157,7 @@
         <v>2276</v>
       </c>
       <c r="D2159" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="2160" spans="1:4">
@@ -38188,7 +38185,7 @@
         <v>2276</v>
       </c>
       <c r="D2161" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="2162" spans="1:4">
@@ -38202,7 +38199,7 @@
         <v>2276</v>
       </c>
       <c r="D2162" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="2163" spans="1:4">
@@ -38230,7 +38227,7 @@
         <v>2276</v>
       </c>
       <c r="D2164" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="2165" spans="1:4">
@@ -38258,7 +38255,7 @@
         <v>2276</v>
       </c>
       <c r="D2166" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="2167" spans="1:4">
@@ -38272,7 +38269,7 @@
         <v>2276</v>
       </c>
       <c r="D2167" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="2168" spans="1:4">
@@ -38286,7 +38283,7 @@
         <v>2276</v>
       </c>
       <c r="D2168" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="2169" spans="1:4">
@@ -38300,7 +38297,7 @@
         <v>2276</v>
       </c>
       <c r="D2169" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2170" spans="1:4">
@@ -38314,7 +38311,7 @@
         <v>2276</v>
       </c>
       <c r="D2170" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="2171" spans="1:4">
@@ -38328,7 +38325,7 @@
         <v>2276</v>
       </c>
       <c r="D2171" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="2172" spans="1:4">
@@ -38356,7 +38353,7 @@
         <v>2276</v>
       </c>
       <c r="D2173" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2174" spans="1:4">
@@ -38370,7 +38367,7 @@
         <v>2276</v>
       </c>
       <c r="D2174" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="2175" spans="1:4">
@@ -38412,7 +38409,7 @@
         <v>2276</v>
       </c>
       <c r="D2177" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2178" spans="1:4">
@@ -38426,7 +38423,7 @@
         <v>2276</v>
       </c>
       <c r="D2178" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="2179" spans="1:4">
@@ -38440,7 +38437,7 @@
         <v>2276</v>
       </c>
       <c r="D2179" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="2180" spans="1:4">
@@ -38454,7 +38451,7 @@
         <v>2276</v>
       </c>
       <c r="D2180" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="2181" spans="1:4">
@@ -38482,7 +38479,7 @@
         <v>2276</v>
       </c>
       <c r="D2182" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="2183" spans="1:4">
@@ -38496,7 +38493,7 @@
         <v>2276</v>
       </c>
       <c r="D2183" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="2184" spans="1:4">
@@ -38510,7 +38507,7 @@
         <v>2276</v>
       </c>
       <c r="D2184" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="2185" spans="1:4">
@@ -38538,7 +38535,7 @@
         <v>2276</v>
       </c>
       <c r="D2186" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="2187" spans="1:4">
@@ -38552,7 +38549,7 @@
         <v>2276</v>
       </c>
       <c r="D2187" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="2188" spans="1:4">
@@ -38566,7 +38563,7 @@
         <v>2276</v>
       </c>
       <c r="D2188" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="2189" spans="1:4">
@@ -38580,7 +38577,7 @@
         <v>2276</v>
       </c>
       <c r="D2189" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="2190" spans="1:4">
@@ -38594,7 +38591,7 @@
         <v>2276</v>
       </c>
       <c r="D2190" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="2191" spans="1:4">
@@ -38608,7 +38605,7 @@
         <v>2276</v>
       </c>
       <c r="D2191" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="2192" spans="1:4">
@@ -38622,7 +38619,7 @@
         <v>2276</v>
       </c>
       <c r="D2192" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="2193" spans="1:4">
@@ -38636,7 +38633,7 @@
         <v>2276</v>
       </c>
       <c r="D2193" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="2194" spans="1:4">
@@ -38650,7 +38647,7 @@
         <v>2276</v>
       </c>
       <c r="D2194" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="2195" spans="1:4">
@@ -38678,7 +38675,7 @@
         <v>2276</v>
       </c>
       <c r="D2196" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="2197" spans="1:4">
@@ -38692,7 +38689,7 @@
         <v>2276</v>
       </c>
       <c r="D2197" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="2198" spans="1:4">
@@ -38706,7 +38703,7 @@
         <v>2276</v>
       </c>
       <c r="D2198" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="2199" spans="1:4">
@@ -38720,7 +38717,7 @@
         <v>2276</v>
       </c>
       <c r="D2199" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="2200" spans="1:4">
@@ -38734,7 +38731,7 @@
         <v>2276</v>
       </c>
       <c r="D2200" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="2201" spans="1:4">
@@ -38748,7 +38745,7 @@
         <v>2276</v>
       </c>
       <c r="D2201" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="2202" spans="1:4">
@@ -38762,7 +38759,7 @@
         <v>2276</v>
       </c>
       <c r="D2202" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="2203" spans="1:4">
@@ -38776,7 +38773,7 @@
         <v>2276</v>
       </c>
       <c r="D2203" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="2204" spans="1:4">
@@ -38790,7 +38787,7 @@
         <v>2276</v>
       </c>
       <c r="D2204" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="2205" spans="1:4">
@@ -38818,7 +38815,7 @@
         <v>2276</v>
       </c>
       <c r="D2206" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="2207" spans="1:4">
@@ -38832,7 +38829,7 @@
         <v>2276</v>
       </c>
       <c r="D2207" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="2208" spans="1:4">
@@ -38846,7 +38843,7 @@
         <v>2276</v>
       </c>
       <c r="D2208" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="2209" spans="1:4">
@@ -38860,7 +38857,7 @@
         <v>2276</v>
       </c>
       <c r="D2209" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="2210" spans="1:4">
@@ -38874,7 +38871,7 @@
         <v>2276</v>
       </c>
       <c r="D2210" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="2211" spans="1:4">
@@ -38902,7 +38899,7 @@
         <v>2275</v>
       </c>
       <c r="D2212" t="s">
-        <v>2422</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="2213" spans="1:4">
@@ -38916,7 +38913,7 @@
         <v>2275</v>
       </c>
       <c r="D2213" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="2214" spans="1:4">
@@ -38944,7 +38941,7 @@
         <v>2273</v>
       </c>
       <c r="D2215" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="2216" spans="1:4">
@@ -38972,7 +38969,7 @@
         <v>2276</v>
       </c>
       <c r="D2217" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="2218" spans="1:4">
@@ -38986,7 +38983,7 @@
         <v>2276</v>
       </c>
       <c r="D2218" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="2219" spans="1:4">
@@ -39014,7 +39011,7 @@
         <v>2273</v>
       </c>
       <c r="D2220" t="s">
-        <v>2446</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="2221" spans="1:4">
@@ -39028,7 +39025,7 @@
         <v>2276</v>
       </c>
       <c r="D2221" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="2222" spans="1:4">
@@ -39098,7 +39095,7 @@
         <v>2273</v>
       </c>
       <c r="D2226" t="s">
-        <v>2423</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="2227" spans="1:4">
@@ -39112,7 +39109,7 @@
         <v>2276</v>
       </c>
       <c r="D2227" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="2228" spans="1:4">
@@ -39140,7 +39137,7 @@
         <v>2276</v>
       </c>
       <c r="D2229" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="2230" spans="1:4">
@@ -39154,7 +39151,7 @@
         <v>2276</v>
       </c>
       <c r="D2230" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="2231" spans="1:4">
@@ -39168,7 +39165,7 @@
         <v>2276</v>
       </c>
       <c r="D2231" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="2232" spans="1:4">
@@ -39182,7 +39179,7 @@
         <v>2276</v>
       </c>
       <c r="D2232" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="2233" spans="1:4">
@@ -39196,7 +39193,7 @@
         <v>2276</v>
       </c>
       <c r="D2233" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="2234" spans="1:4">
@@ -39238,7 +39235,7 @@
         <v>2276</v>
       </c>
       <c r="D2236" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="2237" spans="1:4">
@@ -39252,7 +39249,7 @@
         <v>2276</v>
       </c>
       <c r="D2237" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="2238" spans="1:4">
@@ -39266,7 +39263,7 @@
         <v>2276</v>
       </c>
       <c r="D2238" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="2239" spans="1:4">
@@ -39280,7 +39277,7 @@
         <v>2276</v>
       </c>
       <c r="D2239" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="2240" spans="1:4">
@@ -39308,7 +39305,7 @@
         <v>2275</v>
       </c>
       <c r="D2241" t="s">
-        <v>2424</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="2242" spans="1:4">
@@ -39350,7 +39347,7 @@
         <v>2276</v>
       </c>
       <c r="D2244" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="2245" spans="1:4">
@@ -39364,7 +39361,7 @@
         <v>2273</v>
       </c>
       <c r="D2245" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="2246" spans="1:4">
@@ -39406,7 +39403,7 @@
         <v>2273</v>
       </c>
       <c r="D2248" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="2249" spans="1:4">
@@ -39420,7 +39417,7 @@
         <v>2275</v>
       </c>
       <c r="D2249" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="2250" spans="1:4">
@@ -39434,7 +39431,7 @@
         <v>2276</v>
       </c>
       <c r="D2250" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="2251" spans="1:4">
@@ -39448,7 +39445,7 @@
         <v>2276</v>
       </c>
       <c r="D2251" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="2252" spans="1:4">
@@ -39462,7 +39459,7 @@
         <v>2273</v>
       </c>
       <c r="D2252" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="2253" spans="1:4">
@@ -39476,7 +39473,7 @@
         <v>2276</v>
       </c>
       <c r="D2253" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="2254" spans="1:4">
@@ -39560,7 +39557,7 @@
         <v>2263</v>
       </c>
       <c r="D2259" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="2260" spans="1:4">
@@ -39574,7 +39571,7 @@
         <v>2273</v>
       </c>
       <c r="D2260" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
     </row>
   </sheetData>
